--- a/estudoNN-alinea-b.xlsx
+++ b/estudoNN-alinea-b.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfida\Desktop\ISEC 2020-2021\CR\TP_NN\Conhecimento-Raciocinio\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCE1EF0-9D70-4721-95F8-247DB2F48961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12435" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IRIS" sheetId="1" r:id="rId1"/>
@@ -557,14 +563,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -577,7 +577,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -585,7 +585,7 @@
       <sz val="18"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -593,7 +593,7 @@
       <sz val="20"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -601,162 +601,67 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color theme="2" tint="-0.499984740745262"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="12"/>
+      <color theme="4"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -769,194 +674,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1001,253 +720,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1264,12 +741,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1279,65 +750,48 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1659,16 +1113,16 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1681,7 +1135,7 @@
     <col min="7" max="7" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.1" customHeight="1" spans="2:9">
+    <row r="1" spans="1:9" ht="35.1" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1705,3906 +1159,3904 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>10</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5">
         <v>36</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="3" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5">
         <v>85</v>
       </c>
-      <c r="I3" s="10">
-        <v>86.6667</v>
-      </c>
-    </row>
-    <row r="4" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A4" s="8" t="s">
+      <c r="I3" s="8">
+        <v>86.666700000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5">
         <v>20</v>
       </c>
-      <c r="I4" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A5" s="8" t="s">
+      <c r="I4" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>10</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5">
         <v>55</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="6" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>10</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5">
         <v>48</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="7" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5">
         <v>19</v>
       </c>
-      <c r="I7" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A8" s="8" t="s">
+      <c r="I7" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>10</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5">
         <v>20</v>
       </c>
-      <c r="I8" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A9" s="8" t="s">
+      <c r="I8" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>10</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5">
         <v>19</v>
       </c>
-      <c r="I9" s="10">
-        <v>13.3333</v>
-      </c>
-    </row>
-    <row r="10" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A10" s="8" t="s">
+      <c r="I9" s="8">
+        <v>13.333299999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
+        <v>10</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="5">
         <v>56</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="11" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="9">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9">
-        <v>10</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="5">
         <v>49</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="12" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="9">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9">
-        <v>10</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <v>10</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="5">
         <v>44</v>
       </c>
-      <c r="I12" s="10">
-        <v>33.3333</v>
-      </c>
-    </row>
-    <row r="13" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A13" s="8" t="s">
+      <c r="I12" s="8">
+        <v>33.333300000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="9">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9">
-        <v>10</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7">
+        <v>10</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5">
         <v>55</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="14" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="9">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9">
-        <v>10</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>10</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5">
         <v>78</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="8">
         <v>65</v>
       </c>
     </row>
-    <row r="15" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="9">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9">
-        <v>10</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
+        <v>10</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5">
         <v>82</v>
       </c>
-      <c r="I15" s="10">
-        <v>73.3333</v>
-      </c>
-    </row>
-    <row r="16" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A16" s="8" t="s">
+      <c r="I15" s="8">
+        <v>73.333299999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="9">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9">
-        <v>10</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>10</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="E16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="5">
         <v>71</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="17" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="9">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9">
-        <v>10</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>10</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="E17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5">
         <v>74</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="8">
         <v>65</v>
       </c>
     </row>
-    <row r="18" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="9">
-        <v>1</v>
-      </c>
-      <c r="C18" s="9">
-        <v>10</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7">
+        <v>10</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="E18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5">
         <v>80</v>
       </c>
-      <c r="I18" s="10">
-        <v>53.3333</v>
-      </c>
-    </row>
-    <row r="19" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A19" s="8" t="s">
+      <c r="I18" s="8">
+        <v>53.333300000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="9">
-        <v>1</v>
-      </c>
-      <c r="C19" s="9">
-        <v>10</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7">
+        <v>10</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="E19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5">
         <v>87</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="20" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="9">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9">
-        <v>10</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7">
+        <v>10</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="E20" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5">
         <v>92</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="8">
         <v>75</v>
       </c>
     </row>
-    <row r="21" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="9">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9">
-        <v>10</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
+        <v>10</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="E21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5">
         <v>96</v>
       </c>
-      <c r="I21" s="10">
-        <v>86.6667</v>
-      </c>
-    </row>
-    <row r="22" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A22" s="8" t="s">
+      <c r="I21" s="8">
+        <v>86.666700000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="9">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9">
-        <v>10</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7">
+        <v>10</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="4" t="s">
+      <c r="E22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5">
         <v>97</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="23" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="9">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9">
-        <v>10</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7">
+        <v>10</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="E23" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="5">
         <v>82</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="8">
         <v>55</v>
       </c>
     </row>
-    <row r="24" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="9">
-        <v>1</v>
-      </c>
-      <c r="C24" s="9">
-        <v>10</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7">
+        <v>10</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="E24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="5">
         <v>92</v>
       </c>
-      <c r="I24" s="10">
-        <v>66.6667</v>
-      </c>
-    </row>
-    <row r="25" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A25" s="8" t="s">
+      <c r="I24" s="8">
+        <v>66.666700000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="9">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9">
-        <v>10</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="B25" s="7">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7">
+        <v>10</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="E25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5">
         <v>87</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="26" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="9">
-        <v>1</v>
-      </c>
-      <c r="C26" s="9">
-        <v>10</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7">
+        <v>10</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="E26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5">
         <v>80</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="27" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="9">
-        <v>1</v>
-      </c>
-      <c r="C27" s="9">
-        <v>10</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7">
+        <v>10</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="E27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5">
         <v>89</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="28" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="9">
-        <v>1</v>
-      </c>
-      <c r="C28" s="9">
-        <v>10</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="B28" s="7">
+        <v>1</v>
+      </c>
+      <c r="C28" s="7">
+        <v>10</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="4" t="s">
+      <c r="E28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="5">
         <v>99</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="29" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="9">
-        <v>1</v>
-      </c>
-      <c r="C29" s="9">
-        <v>10</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="B29" s="7">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7">
+        <v>10</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="4" t="s">
+      <c r="E29" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5">
         <v>70</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="30" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="9">
-        <v>1</v>
-      </c>
-      <c r="C30" s="9">
-        <v>10</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="B30" s="7">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7">
+        <v>10</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="E30" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="5">
         <v>95</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="31" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="9">
-        <v>1</v>
-      </c>
-      <c r="C31" s="9">
-        <v>10</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="B31" s="7">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7">
+        <v>10</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="4" t="s">
+      <c r="E31" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="5">
         <v>39</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="32" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A32" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="9">
-        <v>1</v>
-      </c>
-      <c r="C32" s="9">
-        <v>10</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="B32" s="7">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7">
+        <v>10</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="4" t="s">
+      <c r="E32" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="5">
         <v>96</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="8">
         <v>85</v>
       </c>
     </row>
-    <row r="33" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="9">
-        <v>1</v>
-      </c>
-      <c r="C33" s="9">
-        <v>10</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="B33" s="7">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7">
+        <v>10</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="4" t="s">
+      <c r="E33" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5">
         <v>93</v>
       </c>
-      <c r="I33" s="10">
-        <v>73.3333</v>
-      </c>
-    </row>
-    <row r="34" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A34" s="8" t="s">
+      <c r="I33" s="8">
+        <v>73.333299999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A34" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="9">
-        <v>1</v>
-      </c>
-      <c r="C34" s="9">
-        <v>10</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="B34" s="7">
+        <v>1</v>
+      </c>
+      <c r="C34" s="7">
+        <v>10</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="4" t="s">
+      <c r="E34" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="5">
         <v>97</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="35" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A35" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="9">
-        <v>1</v>
-      </c>
-      <c r="C35" s="9">
-        <v>10</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="B35" s="7">
+        <v>1</v>
+      </c>
+      <c r="C35" s="7">
+        <v>10</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="E35" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="5">
         <v>95</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="8">
         <v>95</v>
       </c>
     </row>
-    <row r="36" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A36" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="9">
-        <v>1</v>
-      </c>
-      <c r="C36" s="9">
-        <v>10</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="B36" s="7">
+        <v>1</v>
+      </c>
+      <c r="C36" s="7">
+        <v>10</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="E36" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="5">
         <v>99</v>
       </c>
-      <c r="I36" s="10">
-        <v>93.3333</v>
-      </c>
-    </row>
-    <row r="37" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A37" s="8" t="s">
+      <c r="I36" s="8">
+        <v>93.333299999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A37" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="9">
-        <v>1</v>
-      </c>
-      <c r="C37" s="9">
-        <v>10</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="B37" s="7">
+        <v>1</v>
+      </c>
+      <c r="C37" s="7">
+        <v>10</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="4" t="s">
+      <c r="E37" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="5">
         <v>99</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="38" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A38" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="9">
-        <v>1</v>
-      </c>
-      <c r="C38" s="9">
-        <v>20</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="B38" s="12">
+        <v>1</v>
+      </c>
+      <c r="C38" s="12">
+        <v>20</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="4" t="s">
+      <c r="E38" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="5">
         <v>50</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="39" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A39" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="9">
-        <v>1</v>
-      </c>
-      <c r="C39" s="9">
-        <v>20</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="B39" s="12">
+        <v>1</v>
+      </c>
+      <c r="C39" s="12">
+        <v>20</v>
+      </c>
+      <c r="D39" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="4" t="s">
+      <c r="E39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="5">
         <v>60</v>
       </c>
-      <c r="I39" s="10">
-        <v>73.3333</v>
-      </c>
-    </row>
-    <row r="40" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A40" s="8" t="s">
+      <c r="I39" s="8">
+        <v>73.333299999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A40" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="9">
-        <v>1</v>
-      </c>
-      <c r="C40" s="9">
-        <v>20</v>
-      </c>
-      <c r="D40" s="4" t="s">
+      <c r="B40" s="12">
+        <v>1</v>
+      </c>
+      <c r="C40" s="12">
+        <v>20</v>
+      </c>
+      <c r="D40" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="4" t="s">
+      <c r="E40" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="5">
         <v>10</v>
       </c>
-      <c r="I40" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A41" s="8" t="s">
+      <c r="I40" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A41" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="9">
-        <v>1</v>
-      </c>
-      <c r="C41" s="9">
-        <v>20</v>
-      </c>
-      <c r="D41" s="4" t="s">
+      <c r="B41" s="12">
+        <v>1</v>
+      </c>
+      <c r="C41" s="12">
+        <v>20</v>
+      </c>
+      <c r="D41" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="4" t="s">
+      <c r="E41" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="5">
         <v>12</v>
       </c>
-      <c r="I41" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A42" s="8" t="s">
+      <c r="I41" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A42" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="9">
-        <v>1</v>
-      </c>
-      <c r="C42" s="9">
-        <v>20</v>
-      </c>
-      <c r="D42" s="4" t="s">
+      <c r="B42" s="12">
+        <v>1</v>
+      </c>
+      <c r="C42" s="12">
+        <v>20</v>
+      </c>
+      <c r="D42" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="4" t="s">
+      <c r="E42" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="5">
         <v>49</v>
       </c>
-      <c r="I42" s="10">
-        <v>66.6667</v>
-      </c>
-    </row>
-    <row r="43" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A43" s="8" t="s">
+      <c r="I42" s="8">
+        <v>66.666700000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A43" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="9">
-        <v>1</v>
-      </c>
-      <c r="C43" s="9">
-        <v>20</v>
-      </c>
-      <c r="D43" s="4" t="s">
+      <c r="B43" s="12">
+        <v>1</v>
+      </c>
+      <c r="C43" s="12">
+        <v>20</v>
+      </c>
+      <c r="D43" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="4" t="s">
+      <c r="E43" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="5">
         <v>66</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="44" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A44" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="9">
-        <v>1</v>
-      </c>
-      <c r="C44" s="9">
-        <v>20</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="B44" s="12">
+        <v>1</v>
+      </c>
+      <c r="C44" s="12">
+        <v>20</v>
+      </c>
+      <c r="D44" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="4" t="s">
+      <c r="E44" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="5">
         <v>86</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="8">
         <v>85</v>
       </c>
     </row>
-    <row r="45" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A45" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="9">
-        <v>1</v>
-      </c>
-      <c r="C45" s="9">
-        <v>20</v>
-      </c>
-      <c r="D45" s="4" t="s">
+      <c r="B45" s="12">
+        <v>1</v>
+      </c>
+      <c r="C45" s="12">
+        <v>20</v>
+      </c>
+      <c r="D45" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F45" s="4" t="s">
+      <c r="E45" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="5">
         <v>67</v>
       </c>
-      <c r="I45" s="10">
-        <v>66.6667</v>
-      </c>
-    </row>
-    <row r="46" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A46" s="8" t="s">
+      <c r="I45" s="8">
+        <v>66.666700000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A46" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="9">
-        <v>1</v>
-      </c>
-      <c r="C46" s="9">
-        <v>20</v>
-      </c>
-      <c r="D46" s="4" t="s">
+      <c r="B46" s="12">
+        <v>1</v>
+      </c>
+      <c r="C46" s="12">
+        <v>20</v>
+      </c>
+      <c r="D46" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="4" t="s">
+      <c r="E46" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="5">
         <v>78</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="47" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A47" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="9">
-        <v>1</v>
-      </c>
-      <c r="C47" s="9">
-        <v>20</v>
-      </c>
-      <c r="D47" s="4" t="s">
+      <c r="B47" s="12">
+        <v>1</v>
+      </c>
+      <c r="C47" s="12">
+        <v>20</v>
+      </c>
+      <c r="D47" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="4" t="s">
+      <c r="E47" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="5">
         <v>73</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="48" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A48" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="9">
-        <v>1</v>
-      </c>
-      <c r="C48" s="9">
-        <v>20</v>
-      </c>
-      <c r="D48" s="4" t="s">
+      <c r="B48" s="12">
+        <v>1</v>
+      </c>
+      <c r="C48" s="12">
+        <v>20</v>
+      </c>
+      <c r="D48" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" s="4" t="s">
+      <c r="E48" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="5">
         <v>31</v>
       </c>
-      <c r="I48" s="10">
-        <v>13.3333</v>
-      </c>
-    </row>
-    <row r="49" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A49" s="8" t="s">
+      <c r="I48" s="8">
+        <v>13.333299999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A49" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="9">
-        <v>1</v>
-      </c>
-      <c r="C49" s="9">
-        <v>20</v>
-      </c>
-      <c r="D49" s="4" t="s">
+      <c r="B49" s="12">
+        <v>1</v>
+      </c>
+      <c r="C49" s="12">
+        <v>20</v>
+      </c>
+      <c r="D49" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49" s="4" t="s">
+      <c r="E49" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="5">
         <v>30</v>
       </c>
-      <c r="I49" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A50" s="8" t="s">
+      <c r="I49" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A50" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="9">
-        <v>1</v>
-      </c>
-      <c r="C50" s="9">
-        <v>20</v>
-      </c>
-      <c r="D50" s="4" t="s">
+      <c r="B50" s="12">
+        <v>1</v>
+      </c>
+      <c r="C50" s="12">
+        <v>20</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="4" t="s">
+      <c r="E50" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="5">
         <v>87</v>
       </c>
-      <c r="I50" s="10">
+      <c r="I50" s="8">
         <v>65</v>
       </c>
     </row>
-    <row r="51" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A51" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="9">
-        <v>1</v>
-      </c>
-      <c r="C51" s="9">
-        <v>20</v>
-      </c>
-      <c r="D51" s="4" t="s">
+      <c r="B51" s="12">
+        <v>1</v>
+      </c>
+      <c r="C51" s="12">
+        <v>20</v>
+      </c>
+      <c r="D51" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="4" t="s">
+      <c r="E51" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="5">
         <v>86</v>
       </c>
-      <c r="I51" s="10">
-        <v>53.3333</v>
-      </c>
-    </row>
-    <row r="52" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A52" s="8" t="s">
+      <c r="I51" s="8">
+        <v>53.333300000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A52" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="9">
-        <v>1</v>
-      </c>
-      <c r="C52" s="9">
-        <v>20</v>
-      </c>
-      <c r="D52" s="4" t="s">
+      <c r="B52" s="12">
+        <v>1</v>
+      </c>
+      <c r="C52" s="12">
+        <v>20</v>
+      </c>
+      <c r="D52" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="4" t="s">
+      <c r="E52" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="5">
         <v>96</v>
       </c>
-      <c r="I52" s="10">
+      <c r="I52" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="53" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A53" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="9">
-        <v>1</v>
-      </c>
-      <c r="C53" s="9">
-        <v>20</v>
-      </c>
-      <c r="D53" s="4" t="s">
+      <c r="B53" s="12">
+        <v>1</v>
+      </c>
+      <c r="C53" s="12">
+        <v>20</v>
+      </c>
+      <c r="D53" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="4" t="s">
+      <c r="E53" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="5">
         <v>84</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I53" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="54" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A54" s="8" t="s">
+    <row r="54" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A54" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="9">
-        <v>1</v>
-      </c>
-      <c r="C54" s="9">
-        <v>20</v>
-      </c>
-      <c r="D54" s="4" t="s">
+      <c r="B54" s="12">
+        <v>1</v>
+      </c>
+      <c r="C54" s="12">
+        <v>20</v>
+      </c>
+      <c r="D54" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="4" t="s">
+      <c r="E54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="5">
         <v>88</v>
       </c>
-      <c r="I54" s="10">
-        <v>46.6667</v>
-      </c>
-    </row>
-    <row r="55" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A55" s="8" t="s">
+      <c r="I54" s="8">
+        <v>46.666699999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A55" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="9">
-        <v>1</v>
-      </c>
-      <c r="C55" s="9">
-        <v>20</v>
-      </c>
-      <c r="D55" s="4" t="s">
+      <c r="B55" s="12">
+        <v>1</v>
+      </c>
+      <c r="C55" s="12">
+        <v>20</v>
+      </c>
+      <c r="D55" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="4" t="s">
+      <c r="E55" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="5">
         <v>92</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I55" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="56" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A56" s="8" t="s">
+    <row r="56" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A56" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="9">
-        <v>1</v>
-      </c>
-      <c r="C56" s="9">
-        <v>20</v>
-      </c>
-      <c r="D56" s="4" t="s">
+      <c r="B56" s="12">
+        <v>1</v>
+      </c>
+      <c r="C56" s="12">
+        <v>20</v>
+      </c>
+      <c r="D56" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F56" s="4" t="s">
+      <c r="E56" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="5">
         <v>92</v>
       </c>
-      <c r="I56" s="10">
+      <c r="I56" s="8">
         <v>75</v>
       </c>
     </row>
-    <row r="57" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A57" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="9">
-        <v>1</v>
-      </c>
-      <c r="C57" s="9">
-        <v>20</v>
-      </c>
-      <c r="D57" s="4" t="s">
+      <c r="B57" s="12">
+        <v>1</v>
+      </c>
+      <c r="C57" s="12">
+        <v>20</v>
+      </c>
+      <c r="D57" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57" s="4" t="s">
+      <c r="E57" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="5">
         <v>96</v>
       </c>
-      <c r="I57" s="10">
-        <v>93.3333</v>
-      </c>
-    </row>
-    <row r="58" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A58" s="8" t="s">
+      <c r="I57" s="8">
+        <v>93.333299999999994</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A58" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="9">
-        <v>1</v>
-      </c>
-      <c r="C58" s="9">
-        <v>20</v>
-      </c>
-      <c r="D58" s="4" t="s">
+      <c r="B58" s="12">
+        <v>1</v>
+      </c>
+      <c r="C58" s="12">
+        <v>20</v>
+      </c>
+      <c r="D58" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F58" s="4" t="s">
+      <c r="E58" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="5">
         <v>96</v>
       </c>
-      <c r="I58" s="10">
+      <c r="I58" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="59" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A59" s="8" t="s">
+    <row r="59" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A59" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B59" s="9">
-        <v>1</v>
-      </c>
-      <c r="C59" s="9">
-        <v>20</v>
-      </c>
-      <c r="D59" s="4" t="s">
+      <c r="B59" s="12">
+        <v>1</v>
+      </c>
+      <c r="C59" s="12">
+        <v>20</v>
+      </c>
+      <c r="D59" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="4" t="s">
+      <c r="E59" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="5">
         <v>82</v>
       </c>
-      <c r="I59" s="10">
+      <c r="I59" s="8">
         <v>45</v>
       </c>
     </row>
-    <row r="60" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A60" s="8" t="s">
+    <row r="60" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A60" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="9">
-        <v>1</v>
-      </c>
-      <c r="C60" s="9">
-        <v>20</v>
-      </c>
-      <c r="D60" s="4" t="s">
+      <c r="B60" s="12">
+        <v>1</v>
+      </c>
+      <c r="C60" s="12">
+        <v>20</v>
+      </c>
+      <c r="D60" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" s="4" t="s">
+      <c r="E60" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="5">
         <v>90</v>
       </c>
-      <c r="I60" s="10">
-        <v>53.3333</v>
-      </c>
-    </row>
-    <row r="61" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A61" s="8" t="s">
+      <c r="I60" s="8">
+        <v>53.333300000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A61" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="9">
-        <v>1</v>
-      </c>
-      <c r="C61" s="9">
-        <v>20</v>
-      </c>
-      <c r="D61" s="4" t="s">
+      <c r="B61" s="12">
+        <v>1</v>
+      </c>
+      <c r="C61" s="12">
+        <v>20</v>
+      </c>
+      <c r="D61" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" s="4" t="s">
+      <c r="E61" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="5">
         <v>97</v>
       </c>
-      <c r="I61" s="10">
+      <c r="I61" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="62" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A62" s="8" t="s">
+    <row r="62" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A62" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="9">
-        <v>1</v>
-      </c>
-      <c r="C62" s="9">
-        <v>20</v>
-      </c>
-      <c r="D62" s="4" t="s">
+      <c r="B62" s="12">
+        <v>1</v>
+      </c>
+      <c r="C62" s="12">
+        <v>20</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="4" t="s">
+      <c r="E62" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="5">
         <v>98</v>
       </c>
-      <c r="I62" s="10">
+      <c r="I62" s="8">
         <v>95</v>
       </c>
     </row>
-    <row r="63" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A63" s="8" t="s">
+    <row r="63" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A63" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="9">
-        <v>1</v>
-      </c>
-      <c r="C63" s="9">
-        <v>20</v>
-      </c>
-      <c r="D63" s="4" t="s">
+      <c r="B63" s="12">
+        <v>1</v>
+      </c>
+      <c r="C63" s="12">
+        <v>20</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="4" t="s">
+      <c r="E63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="5">
         <v>97</v>
       </c>
-      <c r="I63" s="10">
+      <c r="I63" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="64" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A64" s="8" t="s">
+    <row r="64" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A64" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B64" s="9">
-        <v>1</v>
-      </c>
-      <c r="C64" s="9">
-        <v>20</v>
-      </c>
-      <c r="D64" s="4" t="s">
+      <c r="B64" s="12">
+        <v>1</v>
+      </c>
+      <c r="C64" s="12">
+        <v>20</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="4" t="s">
+      <c r="E64" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="5">
         <v>99</v>
       </c>
-      <c r="I64" s="10">
+      <c r="I64" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="65" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A65" s="8" t="s">
+    <row r="65" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A65" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="9">
-        <v>1</v>
-      </c>
-      <c r="C65" s="9">
-        <v>20</v>
-      </c>
-      <c r="D65" s="4" t="s">
+      <c r="B65" s="12">
+        <v>1</v>
+      </c>
+      <c r="C65" s="12">
+        <v>20</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="4" t="s">
+      <c r="E65" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="5">
         <v>98</v>
       </c>
-      <c r="I65" s="10">
+      <c r="I65" s="8">
         <v>95</v>
       </c>
     </row>
-    <row r="66" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A66" s="8" t="s">
+    <row r="66" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A66" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B66" s="9">
-        <v>1</v>
-      </c>
-      <c r="C66" s="9">
-        <v>20</v>
-      </c>
-      <c r="D66" s="4" t="s">
+      <c r="B66" s="12">
+        <v>1</v>
+      </c>
+      <c r="C66" s="12">
+        <v>20</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="4" t="s">
+      <c r="E66" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="5">
         <v>98</v>
       </c>
-      <c r="I66" s="10">
-        <v>86.6667</v>
-      </c>
-    </row>
-    <row r="67" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A67" s="8" t="s">
+      <c r="I66" s="8">
+        <v>86.666700000000006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A67" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="9">
-        <v>1</v>
-      </c>
-      <c r="C67" s="9">
-        <v>20</v>
-      </c>
-      <c r="D67" s="4" t="s">
+      <c r="B67" s="12">
+        <v>1</v>
+      </c>
+      <c r="C67" s="12">
+        <v>20</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="4" t="s">
+      <c r="E67" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="5">
         <v>87</v>
       </c>
-      <c r="I67" s="10">
+      <c r="I67" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="68" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A68" s="8" t="s">
+    <row r="68" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A68" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="9">
-        <v>1</v>
-      </c>
-      <c r="C68" s="9">
-        <v>20</v>
-      </c>
-      <c r="D68" s="4" t="s">
+      <c r="B68" s="12">
+        <v>1</v>
+      </c>
+      <c r="C68" s="12">
+        <v>20</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F68" s="4" t="s">
+      <c r="E68" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="5">
         <v>95</v>
       </c>
-      <c r="I68" s="10">
+      <c r="I68" s="8">
         <v>95</v>
       </c>
     </row>
-    <row r="69" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A69" s="8" t="s">
+    <row r="69" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A69" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="9">
-        <v>1</v>
-      </c>
-      <c r="C69" s="9">
-        <v>20</v>
-      </c>
-      <c r="D69" s="4" t="s">
+      <c r="B69" s="12">
+        <v>1</v>
+      </c>
+      <c r="C69" s="12">
+        <v>20</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F69" s="4" t="s">
+      <c r="E69" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="5">
         <v>98</v>
       </c>
-      <c r="I69" s="10">
-        <v>93.3333</v>
-      </c>
-    </row>
-    <row r="70" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A70" s="8" t="s">
+      <c r="I69" s="8">
+        <v>93.333299999999994</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A70" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B70" s="9">
-        <v>1</v>
-      </c>
-      <c r="C70" s="9">
-        <v>20</v>
-      </c>
-      <c r="D70" s="4" t="s">
+      <c r="B70" s="12">
+        <v>1</v>
+      </c>
+      <c r="C70" s="12">
+        <v>20</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F70" s="4" t="s">
+      <c r="E70" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="5">
         <v>100</v>
       </c>
-      <c r="I70" s="10">
+      <c r="I70" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="71" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A71" s="8" t="s">
+    <row r="71" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A71" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B71" s="9">
-        <v>1</v>
-      </c>
-      <c r="C71" s="9">
-        <v>20</v>
-      </c>
-      <c r="D71" s="4" t="s">
+      <c r="B71" s="12">
+        <v>1</v>
+      </c>
+      <c r="C71" s="12">
+        <v>20</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F71" s="4" t="s">
+      <c r="E71" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="5">
         <v>97</v>
       </c>
-      <c r="I71" s="10">
+      <c r="I71" s="8">
         <v>85</v>
       </c>
     </row>
-    <row r="72" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A72" s="8" t="s">
+    <row r="72" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A72" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B72" s="9">
-        <v>1</v>
-      </c>
-      <c r="C72" s="9">
-        <v>20</v>
-      </c>
-      <c r="D72" s="4" t="s">
+      <c r="B72" s="12">
+        <v>1</v>
+      </c>
+      <c r="C72" s="12">
+        <v>20</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F72" s="4" t="s">
+      <c r="E72" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="5">
         <v>96</v>
       </c>
-      <c r="I72" s="10">
+      <c r="I72" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="73" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A73" s="8" t="s">
+    <row r="73" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A73" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B73" s="9">
-        <v>1</v>
-      </c>
-      <c r="C73" s="9">
-        <v>20</v>
-      </c>
-      <c r="D73" s="4" t="s">
+      <c r="B73" s="12">
+        <v>1</v>
+      </c>
+      <c r="C73" s="12">
+        <v>20</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E73" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F73" s="4" t="s">
+      <c r="E73" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="5">
         <v>95</v>
       </c>
-      <c r="I73" s="10">
+      <c r="I73" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="74" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A74" s="8" t="s">
+    <row r="74" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A74" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B74" s="9">
-        <v>2</v>
-      </c>
-      <c r="C74" s="9" t="s">
+      <c r="B74" s="13">
+        <v>2</v>
+      </c>
+      <c r="C74" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="4" t="s">
+      <c r="E74" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="5">
         <v>16</v>
       </c>
-      <c r="I74" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A75" s="8" t="s">
+      <c r="I74" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A75" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B75" s="9">
-        <v>2</v>
-      </c>
-      <c r="C75" s="9" t="s">
+      <c r="B75" s="13">
+        <v>2</v>
+      </c>
+      <c r="C75" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E75" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="4" t="s">
+      <c r="E75" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="5">
         <v>11</v>
       </c>
-      <c r="I75" s="10">
-        <v>13.3333</v>
-      </c>
-    </row>
-    <row r="76" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A76" s="8" t="s">
+      <c r="I75" s="8">
+        <v>13.333299999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A76" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B76" s="9">
-        <v>2</v>
-      </c>
-      <c r="C76" s="9" t="s">
+      <c r="B76" s="13">
+        <v>2</v>
+      </c>
+      <c r="C76" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E76" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" s="4" t="s">
+      <c r="E76" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="5">
         <v>18</v>
       </c>
-      <c r="I76" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A77" s="8" t="s">
+      <c r="I76" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A77" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B77" s="9">
-        <v>2</v>
-      </c>
-      <c r="C77" s="9" t="s">
+      <c r="B77" s="13">
+        <v>2</v>
+      </c>
+      <c r="C77" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" s="4" t="s">
+      <c r="E77" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="5">
         <v>11</v>
       </c>
-      <c r="I77" s="10">
+      <c r="I77" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="78" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A78" s="8" t="s">
+    <row r="78" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A78" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B78" s="9">
-        <v>2</v>
-      </c>
-      <c r="C78" s="9" t="s">
+      <c r="B78" s="13">
+        <v>2</v>
+      </c>
+      <c r="C78" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E78" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" s="4" t="s">
+      <c r="E78" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="5">
         <v>10</v>
       </c>
-      <c r="I78" s="10">
-        <v>6.6667</v>
-      </c>
-    </row>
-    <row r="79" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A79" s="8" t="s">
+      <c r="I78" s="8">
+        <v>6.6666999999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A79" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B79" s="9">
-        <v>2</v>
-      </c>
-      <c r="C79" s="9" t="s">
+      <c r="B79" s="13">
+        <v>2</v>
+      </c>
+      <c r="C79" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="4" t="s">
+      <c r="E79" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="5">
         <v>10</v>
       </c>
-      <c r="I79" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A80" s="8" t="s">
+      <c r="I79" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A80" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B80" s="9">
-        <v>2</v>
-      </c>
-      <c r="C80" s="9" t="s">
+      <c r="B80" s="13">
+        <v>2</v>
+      </c>
+      <c r="C80" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F80" s="4" t="s">
+      <c r="E80" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="5">
         <v>10</v>
       </c>
-      <c r="I80" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A81" s="8" t="s">
+      <c r="I80" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A81" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B81" s="9">
-        <v>2</v>
-      </c>
-      <c r="C81" s="9" t="s">
+      <c r="B81" s="13">
+        <v>2</v>
+      </c>
+      <c r="C81" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F81" s="4" t="s">
+      <c r="E81" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="5">
         <v>17</v>
       </c>
-      <c r="I81" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A82" s="8" t="s">
+      <c r="I81" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A82" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B82" s="9">
-        <v>2</v>
-      </c>
-      <c r="C82" s="9" t="s">
+      <c r="B82" s="13">
+        <v>2</v>
+      </c>
+      <c r="C82" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E82" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F82" s="4" t="s">
+      <c r="E82" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="5">
         <v>13</v>
       </c>
-      <c r="I82" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A83" s="8" t="s">
+      <c r="I82" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A83" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B83" s="9">
-        <v>2</v>
-      </c>
-      <c r="C83" s="9" t="s">
+      <c r="B83" s="13">
+        <v>2</v>
+      </c>
+      <c r="C83" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E83" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F83" s="4" t="s">
+      <c r="E83" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="5">
         <v>10</v>
       </c>
-      <c r="I83" s="10">
+      <c r="I83" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="84" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A84" s="8" t="s">
+    <row r="84" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A84" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B84" s="9">
-        <v>2</v>
-      </c>
-      <c r="C84" s="9" t="s">
+      <c r="B84" s="13">
+        <v>2</v>
+      </c>
+      <c r="C84" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F84" s="4" t="s">
+      <c r="E84" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="5">
         <v>35</v>
       </c>
-      <c r="I84" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A85" s="8" t="s">
+      <c r="I84" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A85" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B85" s="9">
-        <v>2</v>
-      </c>
-      <c r="C85" s="9" t="s">
+      <c r="B85" s="13">
+        <v>2</v>
+      </c>
+      <c r="C85" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E85" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F85" s="4" t="s">
+      <c r="E85" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="5">
         <v>11</v>
       </c>
-      <c r="I85" s="10">
+      <c r="I85" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="86" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A86" s="8" t="s">
+    <row r="86" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A86" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B86" s="9">
-        <v>2</v>
-      </c>
-      <c r="C86" s="9" t="s">
+      <c r="B86" s="13">
+        <v>2</v>
+      </c>
+      <c r="C86" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E86" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F86" s="4" t="s">
+      <c r="E86" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="5">
         <v>26</v>
       </c>
-      <c r="I86" s="10">
+      <c r="I86" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="87" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A87" s="8" t="s">
+    <row r="87" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A87" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="9">
-        <v>2</v>
-      </c>
-      <c r="C87" s="9" t="s">
+      <c r="B87" s="13">
+        <v>2</v>
+      </c>
+      <c r="C87" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E87" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" s="4" t="s">
+      <c r="E87" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="5">
         <v>11</v>
       </c>
-      <c r="I87" s="10">
-        <v>6.6667</v>
-      </c>
-    </row>
-    <row r="88" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A88" s="8" t="s">
+      <c r="I87" s="8">
+        <v>6.6666999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A88" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B88" s="9">
-        <v>2</v>
-      </c>
-      <c r="C88" s="9" t="s">
+      <c r="B88" s="13">
+        <v>2</v>
+      </c>
+      <c r="C88" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E88" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" s="4" t="s">
+      <c r="E88" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="5">
         <v>17</v>
       </c>
-      <c r="I88" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A89" s="8" t="s">
+      <c r="I88" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A89" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B89" s="9">
-        <v>2</v>
-      </c>
-      <c r="C89" s="9" t="s">
+      <c r="B89" s="13">
+        <v>2</v>
+      </c>
+      <c r="C89" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" s="4" t="s">
+      <c r="E89" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="5">
         <v>21</v>
       </c>
-      <c r="I89" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A90" s="8" t="s">
+      <c r="I89" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A90" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B90" s="9">
-        <v>2</v>
-      </c>
-      <c r="C90" s="9" t="s">
+      <c r="B90" s="13">
+        <v>2</v>
+      </c>
+      <c r="C90" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E90" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F90" s="4" t="s">
+      <c r="E90" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="5">
         <v>34</v>
       </c>
-      <c r="I90" s="10">
-        <v>33.3333</v>
-      </c>
-    </row>
-    <row r="91" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A91" s="8" t="s">
+      <c r="I90" s="8">
+        <v>33.333300000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A91" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B91" s="9">
-        <v>2</v>
-      </c>
-      <c r="C91" s="9" t="s">
+      <c r="B91" s="13">
+        <v>2</v>
+      </c>
+      <c r="C91" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E91" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" s="4" t="s">
+      <c r="E91" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="5">
         <v>39</v>
       </c>
-      <c r="I91" s="10">
+      <c r="I91" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="92" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A92" s="8" t="s">
+    <row r="92" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A92" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B92" s="9">
-        <v>2</v>
-      </c>
-      <c r="C92" s="9" t="s">
+      <c r="B92" s="13">
+        <v>2</v>
+      </c>
+      <c r="C92" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E92" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F92" s="4" t="s">
+      <c r="E92" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F92" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="5">
         <v>66</v>
       </c>
-      <c r="I92" s="10">
+      <c r="I92" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="93" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A93" s="8" t="s">
+    <row r="93" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A93" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B93" s="9">
-        <v>2</v>
-      </c>
-      <c r="C93" s="9" t="s">
+      <c r="B93" s="13">
+        <v>2</v>
+      </c>
+      <c r="C93" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E93" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F93" s="4" t="s">
+      <c r="E93" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F93" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="5">
         <v>76</v>
       </c>
-      <c r="I93" s="10">
+      <c r="I93" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="94" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A94" s="8" t="s">
+    <row r="94" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A94" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B94" s="9">
-        <v>2</v>
-      </c>
-      <c r="C94" s="9" t="s">
+      <c r="B94" s="13">
+        <v>2</v>
+      </c>
+      <c r="C94" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E94" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F94" s="4" t="s">
+      <c r="E94" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F94" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="5">
         <v>76</v>
       </c>
-      <c r="I94" s="10">
+      <c r="I94" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="95" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A95" s="8" t="s">
+    <row r="95" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A95" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B95" s="9">
-        <v>2</v>
-      </c>
-      <c r="C95" s="9" t="s">
+      <c r="B95" s="13">
+        <v>2</v>
+      </c>
+      <c r="C95" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E95" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F95" s="4" t="s">
+      <c r="E95" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F95" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="5">
         <v>58</v>
       </c>
-      <c r="I95" s="10">
+      <c r="I95" s="8">
         <v>45</v>
       </c>
     </row>
-    <row r="96" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A96" s="8" t="s">
+    <row r="96" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A96" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B96" s="9">
-        <v>2</v>
-      </c>
-      <c r="C96" s="9" t="s">
+      <c r="B96" s="13">
+        <v>2</v>
+      </c>
+      <c r="C96" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E96" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F96" s="4" t="s">
+      <c r="E96" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="5">
         <v>60</v>
       </c>
-      <c r="I96" s="10">
-        <v>26.6667</v>
-      </c>
-    </row>
-    <row r="97" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A97" s="8" t="s">
+      <c r="I96" s="8">
+        <v>26.666699999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A97" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B97" s="9">
-        <v>2</v>
-      </c>
-      <c r="C97" s="9" t="s">
+      <c r="B97" s="13">
+        <v>2</v>
+      </c>
+      <c r="C97" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E97" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F97" s="4" t="s">
+      <c r="E97" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="5">
         <v>72</v>
       </c>
-      <c r="I97" s="10">
+      <c r="I97" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="98" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A98" s="8" t="s">
+    <row r="98" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A98" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B98" s="9">
-        <v>2</v>
-      </c>
-      <c r="C98" s="9" t="s">
+      <c r="B98" s="13">
+        <v>2</v>
+      </c>
+      <c r="C98" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E98" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="4" t="s">
+      <c r="E98" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="5">
         <v>18</v>
       </c>
-      <c r="I98" s="10">
+      <c r="I98" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="99" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A99" s="8" t="s">
+    <row r="99" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A99" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="9">
-        <v>2</v>
-      </c>
-      <c r="C99" s="9" t="s">
+      <c r="B99" s="13">
+        <v>2</v>
+      </c>
+      <c r="C99" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E99" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99" s="4" t="s">
+      <c r="E99" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="5">
         <v>10</v>
       </c>
-      <c r="I99" s="10">
-        <v>6.6667</v>
-      </c>
-    </row>
-    <row r="100" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A100" s="8" t="s">
+      <c r="I99" s="8">
+        <v>6.6666999999999996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A100" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B100" s="9">
-        <v>2</v>
-      </c>
-      <c r="C100" s="9" t="s">
+      <c r="B100" s="13">
+        <v>2</v>
+      </c>
+      <c r="C100" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E100" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" s="4" t="s">
+      <c r="E100" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="5">
         <v>10</v>
       </c>
-      <c r="I100" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A101" s="8" t="s">
+      <c r="I100" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A101" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B101" s="9">
-        <v>2</v>
-      </c>
-      <c r="C101" s="9" t="s">
+      <c r="B101" s="13">
+        <v>2</v>
+      </c>
+      <c r="C101" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E101" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" s="4" t="s">
+      <c r="E101" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="5">
         <v>47</v>
       </c>
-      <c r="I101" s="10">
+      <c r="I101" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="102" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A102" s="8" t="s">
+    <row r="102" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A102" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B102" s="9">
-        <v>2</v>
-      </c>
-      <c r="C102" s="9" t="s">
+      <c r="B102" s="13">
+        <v>2</v>
+      </c>
+      <c r="C102" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E102" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" s="4" t="s">
+      <c r="E102" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="5">
         <v>49</v>
       </c>
-      <c r="I102" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A103" s="8" t="s">
+      <c r="I102" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A103" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B103" s="9">
-        <v>2</v>
-      </c>
-      <c r="C103" s="9" t="s">
+      <c r="B103" s="13">
+        <v>2</v>
+      </c>
+      <c r="C103" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E103" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" s="4" t="s">
+      <c r="E103" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="5">
         <v>10</v>
       </c>
-      <c r="I103" s="10">
+      <c r="I103" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="104" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A104" s="8" t="s">
+    <row r="104" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A104" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B104" s="9">
-        <v>2</v>
-      </c>
-      <c r="C104" s="9" t="s">
+      <c r="B104" s="13">
+        <v>2</v>
+      </c>
+      <c r="C104" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E104" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F104" s="4" t="s">
+      <c r="E104" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F104" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="5">
         <v>57</v>
       </c>
-      <c r="I104" s="10">
+      <c r="I104" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="105" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A105" s="8" t="s">
+    <row r="105" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A105" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B105" s="9">
-        <v>2</v>
-      </c>
-      <c r="C105" s="9" t="s">
+      <c r="B105" s="13">
+        <v>2</v>
+      </c>
+      <c r="C105" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E105" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F105" s="4" t="s">
+      <c r="E105" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F105" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="5">
         <v>94</v>
       </c>
-      <c r="I105" s="10">
-        <v>86.6667</v>
-      </c>
-    </row>
-    <row r="106" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A106" s="8" t="s">
+      <c r="I105" s="8">
+        <v>86.666700000000006</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A106" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B106" s="9">
-        <v>2</v>
-      </c>
-      <c r="C106" s="9" t="s">
+      <c r="B106" s="13">
+        <v>2</v>
+      </c>
+      <c r="C106" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E106" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F106" s="4" t="s">
+      <c r="E106" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F106" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="5">
         <v>60</v>
       </c>
-      <c r="I106" s="10">
+      <c r="I106" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="107" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A107" s="8" t="s">
+    <row r="107" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A107" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B107" s="9">
-        <v>2</v>
-      </c>
-      <c r="C107" s="9" t="s">
+      <c r="B107" s="13">
+        <v>2</v>
+      </c>
+      <c r="C107" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E107" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F107" s="4" t="s">
+      <c r="E107" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F107" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="5">
         <v>84</v>
       </c>
-      <c r="I107" s="10">
+      <c r="I107" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="108" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A108" s="8" t="s">
+    <row r="108" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A108" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B108" s="9">
-        <v>2</v>
-      </c>
-      <c r="C108" s="9" t="s">
+      <c r="B108" s="13">
+        <v>2</v>
+      </c>
+      <c r="C108" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E108" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F108" s="4" t="s">
+      <c r="E108" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="5">
         <v>41</v>
       </c>
-      <c r="I108" s="10">
+      <c r="I108" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="109" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A109" s="8" t="s">
+    <row r="109" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A109" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B109" s="9">
-        <v>2</v>
-      </c>
-      <c r="C109" s="9" t="s">
+      <c r="B109" s="13">
+        <v>2</v>
+      </c>
+      <c r="C109" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E109" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F109" s="4" t="s">
+      <c r="E109" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F109" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="5">
         <v>73</v>
       </c>
-      <c r="I109" s="10">
+      <c r="I109" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="110" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A110" s="8" t="s">
+    <row r="110" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A110" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B110" s="9">
-        <v>2</v>
-      </c>
-      <c r="C110" s="9" t="s">
+      <c r="B110" s="18">
+        <v>2</v>
+      </c>
+      <c r="C110" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E110" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F110" s="4" t="s">
+      <c r="E110" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="5">
         <v>10</v>
       </c>
-      <c r="I110" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A111" s="8" t="s">
+      <c r="I110" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A111" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B111" s="9">
-        <v>2</v>
-      </c>
-      <c r="C111" s="9" t="s">
+      <c r="B111" s="18">
+        <v>2</v>
+      </c>
+      <c r="C111" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E111" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111" s="4" t="s">
+      <c r="E111" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="5">
         <v>10</v>
       </c>
-      <c r="I111" s="10">
-        <v>13.3333</v>
-      </c>
-    </row>
-    <row r="112" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A112" s="8" t="s">
+      <c r="I111" s="8">
+        <v>13.333299999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A112" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B112" s="9">
-        <v>2</v>
-      </c>
-      <c r="C112" s="9" t="s">
+      <c r="B112" s="18">
+        <v>2</v>
+      </c>
+      <c r="C112" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E112" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" s="4" t="s">
+      <c r="E112" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="5">
         <v>50</v>
       </c>
-      <c r="I112" s="10">
+      <c r="I112" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="113" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A113" s="8" t="s">
+    <row r="113" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A113" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B113" s="9">
-        <v>2</v>
-      </c>
-      <c r="C113" s="9" t="s">
+      <c r="B113" s="18">
+        <v>2</v>
+      </c>
+      <c r="C113" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D113" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E113" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" s="4" t="s">
+      <c r="E113" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="5">
         <v>10</v>
       </c>
-      <c r="I113" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="114" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A114" s="8" t="s">
+      <c r="I113" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A114" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B114" s="9">
-        <v>2</v>
-      </c>
-      <c r="C114" s="9" t="s">
+      <c r="B114" s="18">
+        <v>2</v>
+      </c>
+      <c r="C114" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D114" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E114" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114" s="4" t="s">
+      <c r="E114" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="5">
         <v>10</v>
       </c>
-      <c r="I114" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A115" s="8" t="s">
+      <c r="I114" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A115" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B115" s="9">
-        <v>2</v>
-      </c>
-      <c r="C115" s="9" t="s">
+      <c r="B115" s="18">
+        <v>2</v>
+      </c>
+      <c r="C115" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D115" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E115" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" s="4" t="s">
+      <c r="E115" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="5">
         <v>40</v>
       </c>
-      <c r="I115" s="10">
+      <c r="I115" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="116" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A116" s="8" t="s">
+    <row r="116" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A116" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B116" s="9">
-        <v>2</v>
-      </c>
-      <c r="C116" s="9" t="s">
+      <c r="B116" s="18">
+        <v>2</v>
+      </c>
+      <c r="C116" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D116" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E116" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F116" s="4" t="s">
+      <c r="E116" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F116" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="5">
         <v>10</v>
       </c>
-      <c r="I116" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A117" s="8" t="s">
+      <c r="I116" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A117" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B117" s="9">
-        <v>2</v>
-      </c>
-      <c r="C117" s="9" t="s">
+      <c r="B117" s="18">
+        <v>2</v>
+      </c>
+      <c r="C117" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D117" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E117" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F117" s="4" t="s">
+      <c r="E117" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F117" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="5">
         <v>20</v>
       </c>
-      <c r="I117" s="10">
-        <v>13.3333</v>
-      </c>
-    </row>
-    <row r="118" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A118" s="8" t="s">
+      <c r="I117" s="8">
+        <v>13.333299999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A118" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B118" s="9">
-        <v>2</v>
-      </c>
-      <c r="C118" s="9" t="s">
+      <c r="B118" s="18">
+        <v>2</v>
+      </c>
+      <c r="C118" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E118" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F118" s="4" t="s">
+      <c r="E118" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F118" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="5">
         <v>14</v>
       </c>
-      <c r="I118" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A119" s="8" t="s">
+      <c r="I118" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A119" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B119" s="9">
-        <v>2</v>
-      </c>
-      <c r="C119" s="9" t="s">
+      <c r="B119" s="18">
+        <v>2</v>
+      </c>
+      <c r="C119" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E119" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F119" s="4" t="s">
+      <c r="E119" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F119" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="5">
         <v>4</v>
       </c>
-      <c r="I119" s="10">
+      <c r="I119" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="120" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A120" s="8" t="s">
+    <row r="120" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A120" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B120" s="9">
-        <v>2</v>
-      </c>
-      <c r="C120" s="9" t="s">
+      <c r="B120" s="18">
+        <v>2</v>
+      </c>
+      <c r="C120" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D120" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E120" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F120" s="4" t="s">
+      <c r="E120" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F120" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="5">
         <v>29</v>
       </c>
-      <c r="I120" s="10">
-        <v>6.6667</v>
-      </c>
-    </row>
-    <row r="121" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A121" s="8" t="s">
+      <c r="I120" s="8">
+        <v>6.6666999999999996</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A121" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B121" s="9">
-        <v>2</v>
-      </c>
-      <c r="C121" s="9" t="s">
+      <c r="B121" s="18">
+        <v>2</v>
+      </c>
+      <c r="C121" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E121" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F121" s="4" t="s">
+      <c r="E121" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F121" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="5">
         <v>37</v>
       </c>
-      <c r="I121" s="10">
+      <c r="I121" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="122" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A122" s="8" t="s">
+    <row r="122" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A122" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B122" s="9">
-        <v>2</v>
-      </c>
-      <c r="C122" s="9" t="s">
+      <c r="B122" s="18">
+        <v>2</v>
+      </c>
+      <c r="C122" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D122" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E122" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F122" s="4" t="s">
+      <c r="E122" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="5">
         <v>76</v>
       </c>
-      <c r="I122" s="10">
+      <c r="I122" s="8">
         <v>55</v>
       </c>
     </row>
-    <row r="123" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A123" s="8" t="s">
+    <row r="123" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A123" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B123" s="9">
-        <v>2</v>
-      </c>
-      <c r="C123" s="9" t="s">
+      <c r="B123" s="18">
+        <v>2</v>
+      </c>
+      <c r="C123" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D123" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E123" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123" s="4" t="s">
+      <c r="E123" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="5">
         <v>40</v>
       </c>
-      <c r="I123" s="10">
-        <v>46.6667</v>
-      </c>
-    </row>
-    <row r="124" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A124" s="8" t="s">
+      <c r="I123" s="8">
+        <v>46.666699999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A124" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B124" s="9">
-        <v>2</v>
-      </c>
-      <c r="C124" s="9" t="s">
+      <c r="B124" s="18">
+        <v>2</v>
+      </c>
+      <c r="C124" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="D124" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E124" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F124" s="4" t="s">
+      <c r="E124" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="5">
         <v>60</v>
       </c>
-      <c r="I124" s="10">
+      <c r="I124" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="125" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A125" s="8" t="s">
+    <row r="125" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A125" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B125" s="9">
-        <v>2</v>
-      </c>
-      <c r="C125" s="9" t="s">
+      <c r="B125" s="18">
+        <v>2</v>
+      </c>
+      <c r="C125" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D125" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E125" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" s="4" t="s">
+      <c r="E125" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="5">
         <v>83</v>
       </c>
-      <c r="I125" s="10">
+      <c r="I125" s="8">
         <v>65</v>
       </c>
     </row>
-    <row r="126" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A126" s="8" t="s">
+    <row r="126" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A126" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B126" s="9">
-        <v>2</v>
-      </c>
-      <c r="C126" s="9" t="s">
+      <c r="B126" s="18">
+        <v>2</v>
+      </c>
+      <c r="C126" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="D126" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E126" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" s="4" t="s">
+      <c r="E126" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="5">
         <v>66</v>
       </c>
-      <c r="I126" s="10">
-        <v>26.6667</v>
-      </c>
-    </row>
-    <row r="127" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A127" s="8" t="s">
+      <c r="I126" s="8">
+        <v>26.666699999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A127" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B127" s="9">
-        <v>2</v>
-      </c>
-      <c r="C127" s="9" t="s">
+      <c r="B127" s="18">
+        <v>2</v>
+      </c>
+      <c r="C127" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="D127" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E127" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" s="4" t="s">
+      <c r="E127" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="5">
         <v>25</v>
       </c>
-      <c r="I127" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="128" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A128" s="8" t="s">
+      <c r="I127" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A128" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B128" s="9">
-        <v>2</v>
-      </c>
-      <c r="C128" s="9" t="s">
+      <c r="B128" s="18">
+        <v>2</v>
+      </c>
+      <c r="C128" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D128" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E128" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F128" s="4" t="s">
+      <c r="E128" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F128" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="5">
         <v>97</v>
       </c>
-      <c r="I128" s="10">
+      <c r="I128" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="129" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A129" s="8" t="s">
+    <row r="129" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A129" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B129" s="9">
-        <v>2</v>
-      </c>
-      <c r="C129" s="9" t="s">
+      <c r="B129" s="18">
+        <v>2</v>
+      </c>
+      <c r="C129" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D129" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E129" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F129" s="4" t="s">
+      <c r="E129" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F129" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="5">
         <v>88</v>
       </c>
-      <c r="I129" s="10">
+      <c r="I129" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="130" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A130" s="8" t="s">
+    <row r="130" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A130" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B130" s="9">
-        <v>2</v>
-      </c>
-      <c r="C130" s="9" t="s">
+      <c r="B130" s="18">
+        <v>2</v>
+      </c>
+      <c r="C130" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D130" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E130" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F130" s="4" t="s">
+      <c r="E130" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F130" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="5">
         <v>89</v>
       </c>
-      <c r="I130" s="10">
+      <c r="I130" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="131" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A131" s="8" t="s">
+    <row r="131" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A131" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B131" s="9">
-        <v>2</v>
-      </c>
-      <c r="C131" s="9" t="s">
+      <c r="B131" s="18">
+        <v>2</v>
+      </c>
+      <c r="C131" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D131" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E131" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F131" s="4" t="s">
+      <c r="E131" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F131" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="5">
         <v>93</v>
       </c>
-      <c r="I131" s="10">
+      <c r="I131" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="132" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A132" s="8" t="s">
+    <row r="132" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A132" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B132" s="9">
-        <v>2</v>
-      </c>
-      <c r="C132" s="9" t="s">
+      <c r="B132" s="18">
+        <v>2</v>
+      </c>
+      <c r="C132" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="D132" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E132" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F132" s="4" t="s">
+      <c r="E132" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F132" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="5">
         <v>94</v>
       </c>
-      <c r="I132" s="10">
+      <c r="I132" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="133" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A133" s="8" t="s">
+    <row r="133" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A133" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B133" s="9">
-        <v>2</v>
-      </c>
-      <c r="C133" s="9" t="s">
+      <c r="B133" s="18">
+        <v>2</v>
+      </c>
+      <c r="C133" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="D133" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E133" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F133" s="4" t="s">
+      <c r="E133" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F133" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="5">
         <v>97</v>
       </c>
-      <c r="I133" s="10">
+      <c r="I133" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="134" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A134" s="8" t="s">
+    <row r="134" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A134" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B134" s="9">
-        <v>2</v>
-      </c>
-      <c r="C134" s="9" t="s">
+      <c r="B134" s="18">
+        <v>2</v>
+      </c>
+      <c r="C134" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="D134" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E134" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134" s="4" t="s">
+      <c r="E134" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="4"/>
       <c r="H134" s="5">
         <v>74</v>
       </c>
-      <c r="I134" s="10">
+      <c r="I134" s="8">
         <v>65</v>
       </c>
     </row>
-    <row r="135" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A135" s="8" t="s">
+    <row r="135" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A135" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B135" s="9">
-        <v>2</v>
-      </c>
-      <c r="C135" s="9" t="s">
+      <c r="B135" s="18">
+        <v>2</v>
+      </c>
+      <c r="C135" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="D135" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E135" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" s="4" t="s">
+      <c r="E135" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="5">
         <v>80</v>
       </c>
-      <c r="I135" s="10">
+      <c r="I135" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="136" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A136" s="8" t="s">
+    <row r="136" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A136" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B136" s="9">
-        <v>2</v>
-      </c>
-      <c r="C136" s="9" t="s">
+      <c r="B136" s="18">
+        <v>2</v>
+      </c>
+      <c r="C136" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="D136" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E136" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F136" s="4" t="s">
+      <c r="E136" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G136" s="4"/>
       <c r="H136" s="5">
         <v>58</v>
       </c>
-      <c r="I136" s="10">
+      <c r="I136" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="137" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A137" s="8" t="s">
+    <row r="137" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A137" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B137" s="9">
-        <v>2</v>
-      </c>
-      <c r="C137" s="9" t="s">
+      <c r="B137" s="18">
+        <v>2</v>
+      </c>
+      <c r="C137" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D137" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E137" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F137" s="4" t="s">
+      <c r="E137" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G137" s="4"/>
       <c r="H137" s="5">
         <v>49</v>
       </c>
-      <c r="I137" s="10">
+      <c r="I137" s="8">
         <v>55</v>
       </c>
     </row>
-    <row r="138" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A138" s="8" t="s">
+    <row r="138" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A138" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B138" s="9">
-        <v>2</v>
-      </c>
-      <c r="C138" s="9" t="s">
+      <c r="B138" s="18">
+        <v>2</v>
+      </c>
+      <c r="C138" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D138" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E138" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F138" s="4" t="s">
+      <c r="E138" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="5">
         <v>58</v>
       </c>
-      <c r="I138" s="10">
+      <c r="I138" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="139" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A139" s="8" t="s">
+    <row r="139" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A139" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B139" s="9">
-        <v>2</v>
-      </c>
-      <c r="C139" s="9" t="s">
+      <c r="B139" s="18">
+        <v>2</v>
+      </c>
+      <c r="C139" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D139" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E139" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" s="4" t="s">
+      <c r="E139" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G139" s="4"/>
       <c r="H139" s="5">
         <v>63</v>
       </c>
-      <c r="I139" s="10">
+      <c r="I139" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="140" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A140" s="8" t="s">
+    <row r="140" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A140" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B140" s="9">
-        <v>2</v>
-      </c>
-      <c r="C140" s="9" t="s">
+      <c r="B140" s="18">
+        <v>2</v>
+      </c>
+      <c r="C140" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D140" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E140" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F140" s="4" t="s">
+      <c r="E140" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F140" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="5">
         <v>95</v>
       </c>
-      <c r="I140" s="10">
+      <c r="I140" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="141" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A141" s="8" t="s">
+    <row r="141" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A141" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B141" s="9">
-        <v>2</v>
-      </c>
-      <c r="C141" s="9" t="s">
+      <c r="B141" s="18">
+        <v>2</v>
+      </c>
+      <c r="C141" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D141" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E141" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F141" s="4" t="s">
+      <c r="E141" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F141" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="5">
         <v>97</v>
       </c>
-      <c r="I141" s="10">
-        <v>93.3333</v>
-      </c>
-    </row>
-    <row r="142" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A142" s="8" t="s">
+      <c r="I141" s="8">
+        <v>93.333299999999994</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A142" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B142" s="9">
-        <v>2</v>
-      </c>
-      <c r="C142" s="9" t="s">
+      <c r="B142" s="18">
+        <v>2</v>
+      </c>
+      <c r="C142" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D142" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E142" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F142" s="4" t="s">
+      <c r="E142" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F142" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G142" s="4"/>
       <c r="H142" s="5">
         <v>98</v>
       </c>
-      <c r="I142" s="10">
+      <c r="I142" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="143" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A143" s="8" t="s">
+    <row r="143" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A143" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B143" s="9">
-        <v>2</v>
-      </c>
-      <c r="C143" s="9" t="s">
+      <c r="B143" s="18">
+        <v>2</v>
+      </c>
+      <c r="C143" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="D143" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E143" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F143" s="4" t="s">
+      <c r="E143" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F143" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="5">
         <v>91</v>
       </c>
-      <c r="I143" s="10">
+      <c r="I143" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="144" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A144" s="8" t="s">
+    <row r="144" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A144" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B144" s="9">
-        <v>2</v>
-      </c>
-      <c r="C144" s="9" t="s">
+      <c r="B144" s="18">
+        <v>2</v>
+      </c>
+      <c r="C144" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="D144" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E144" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F144" s="4" t="s">
+      <c r="E144" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F144" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="5">
         <v>93</v>
       </c>
-      <c r="I144" s="10">
+      <c r="I144" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="145" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A145" s="8" t="s">
+    <row r="145" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A145" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B145" s="9">
-        <v>2</v>
-      </c>
-      <c r="C145" s="9" t="s">
+      <c r="B145" s="18">
+        <v>2</v>
+      </c>
+      <c r="C145" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D145" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E145" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F145" s="4" t="s">
+      <c r="E145" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F145" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G145" s="4"/>
       <c r="H145" s="5">
         <v>88</v>
       </c>
-      <c r="I145" s="10">
+      <c r="I145" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="146" ht="39.95" customHeight="1"/>
-    <row r="147" ht="39.95" customHeight="1"/>
+    <row r="146" spans="1:9" ht="39.950000000000003" customHeight="1"/>
+    <row r="147" spans="1:9" ht="39.950000000000003" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5621,7 +5073,7 @@
     <col min="7" max="7" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.1" customHeight="1" spans="2:9">
+    <row r="1" spans="1:9" ht="35.1" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5645,8 +5097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="16.5"/>
-    <row r="3" ht="39.95" customHeight="1" spans="1:9">
+    <row r="3" spans="1:9" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>168</v>
       </c>
@@ -5667,31 +5118,30 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" ht="15.95" customHeight="1"/>
-    <row r="5" ht="16.5"/>
-    <row r="6" ht="56.1" customHeight="1" spans="1:9">
-      <c r="A6" s="6" t="s">
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.95" customHeight="1"/>
+    <row r="6" spans="1:9" ht="56.1" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -5705,16 +5155,16 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A8" s="8" t="s">
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="9">
-        <v>2</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>170</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -5728,10 +5178,10 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A9" s="8" t="s">
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="4"/>
@@ -5745,10 +5195,10 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A10" s="8" t="s">
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="4"/>
@@ -5762,24 +5212,23 @@
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" ht="16.5"/>
-    <row r="12" ht="56.1" customHeight="1" spans="1:9">
-      <c r="A12" s="6" t="s">
+      <c r="I10" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="56.1" customHeight="1">
+      <c r="A12" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="4">
@@ -5791,7 +5240,7 @@
       <c r="D13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>172</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -5799,10 +5248,10 @@
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A14" s="8" t="s">
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4">
@@ -5814,7 +5263,7 @@
       <c r="D14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>173</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -5822,10 +5271,10 @@
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A15" s="8" t="s">
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="4"/>
@@ -5837,10 +5286,10 @@
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A16" s="8" t="s">
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="4"/>
@@ -5852,24 +5301,23 @@
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="18" ht="16.5"/>
-    <row r="19" ht="56.1" customHeight="1" spans="1:9">
-      <c r="A19" s="6" t="s">
+      <c r="I16" s="8"/>
+    </row>
+    <row r="19" spans="1:9" ht="56.1" customHeight="1">
+      <c r="A19" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="4">
@@ -5878,7 +5326,7 @@
       <c r="C20" s="4">
         <v>10</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>175</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -5889,10 +5337,10 @@
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A21" s="8" t="s">
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A21" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="4">
@@ -5901,7 +5349,7 @@
       <c r="C21" s="4">
         <v>10</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -5912,10 +5360,10 @@
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A22" s="8" t="s">
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="4"/>
@@ -5927,10 +5375,10 @@
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A23" s="8" t="s">
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="4"/>
@@ -5942,10 +5390,10 @@
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A24" s="8" t="s">
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="4"/>
@@ -5957,10 +5405,10 @@
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A25" s="8" t="s">
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="4"/>
@@ -5972,24 +5420,23 @@
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" ht="16.5"/>
-    <row r="27" ht="56.1" customHeight="1" spans="1:9">
-      <c r="A27" s="6" t="s">
+      <c r="I25" s="8"/>
+    </row>
+    <row r="27" spans="1:9" ht="56.1" customHeight="1">
+      <c r="A27" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A28" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="4">
@@ -6004,15 +5451,15 @@
       <c r="E28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="7" t="s">
         <v>177</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A29" s="8" t="s">
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A29" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="4">
@@ -6027,15 +5474,15 @@
       <c r="E29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="7" t="s">
         <v>178</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="10"/>
-    </row>
-    <row r="30" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A30" s="8" t="s">
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="4"/>
@@ -6045,10 +5492,10 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="10"/>
-    </row>
-    <row r="31" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A31" s="8" t="s">
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A31" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="4"/>
@@ -6058,10 +5505,10 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="10"/>
-    </row>
-    <row r="32" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A32" s="8" t="s">
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A32" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="4"/>
@@ -6071,10 +5518,10 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A33" s="8" t="s">
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A33" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="4"/>
@@ -6084,7 +5531,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="10"/>
+      <c r="I33" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6094,6 +5541,5 @@
     <mergeCell ref="A27:I27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/estudoNN-alinea-b.xlsx
+++ b/estudoNN-alinea-b.xlsx
@@ -7,15 +7,14 @@
     <workbookView windowWidth="28800" windowHeight="12435" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="IRIS" sheetId="1" r:id="rId1"/>
-    <sheet name="COLESTEROL" sheetId="2" r:id="rId2"/>
+    <sheet name="Alinea B" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="168">
   <si>
     <t>Número de camadas escondidas</t>
   </si>
@@ -519,39 +518,6 @@
   </si>
   <si>
     <t>Conf144</t>
-  </si>
-  <si>
-    <t>Configuração por defeito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O número e dimensão das camadas encondidas influencia o desempenho? </t>
-  </si>
-  <si>
-    <t>10,10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A função de treino influencia o desempenho? </t>
-  </si>
-  <si>
-    <t>traingd</t>
-  </si>
-  <si>
-    <t>trainbfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As funções de ativação influenciam o desempenho? </t>
-  </si>
-  <si>
-    <t>logsig, purelin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A divisão de exemplos pelos conjuntos influencia o desempenho? </t>
-  </si>
-  <si>
-    <t>dividerand = {0.33, 0.33, 0.33}</t>
-  </si>
-  <si>
-    <t>dividerand = {0.9, 0.05, 0.05}</t>
   </si>
 </sst>
 </file>
@@ -559,12 +525,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -582,26 +548,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -619,8 +576,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -630,21 +601,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,6 +622,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -681,25 +653,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,8 +675,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,20 +692,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -771,7 +721,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,7 +751,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,31 +775,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,19 +793,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,7 +823,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,37 +865,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,7 +877,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,25 +895,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,8 +955,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,6 +972,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1050,17 +1009,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1072,6 +1020,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,173 +1049,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1264,23 +1214,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1667,8 +1602,8 @@
   <sheetPr/>
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1706,13 +1641,13 @@
       </c>
     </row>
     <row r="2" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1728,18 +1663,18 @@
       <c r="H2" s="5">
         <v>36</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="6">
         <v>35</v>
       </c>
     </row>
     <row r="3" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1755,18 +1690,18 @@
       <c r="H3" s="5">
         <v>85</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="6">
         <v>86.6667</v>
       </c>
     </row>
     <row r="4" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1782,18 +1717,18 @@
       <c r="H4" s="5">
         <v>20</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="5" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1809,18 +1744,18 @@
       <c r="H5" s="5">
         <v>55</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="6">
         <v>40</v>
       </c>
     </row>
     <row r="6" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1836,18 +1771,18 @@
       <c r="H6" s="5">
         <v>48</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="6">
         <v>40</v>
       </c>
     </row>
     <row r="7" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1863,18 +1798,18 @@
       <c r="H7" s="5">
         <v>19</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="8" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1890,18 +1825,18 @@
       <c r="H8" s="5">
         <v>20</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="9" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1917,18 +1852,18 @@
       <c r="H9" s="5">
         <v>19</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="6">
         <v>13.3333</v>
       </c>
     </row>
     <row r="10" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1944,18 +1879,18 @@
       <c r="H10" s="5">
         <v>56</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="11" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="9">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1971,18 +1906,18 @@
       <c r="H11" s="5">
         <v>49</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="6">
         <v>35</v>
       </c>
     </row>
     <row r="12" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="9">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
         <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1998,18 +1933,18 @@
       <c r="H12" s="5">
         <v>44</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="6">
         <v>33.3333</v>
       </c>
     </row>
     <row r="13" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="9">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
         <v>10</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -2025,18 +1960,18 @@
       <c r="H13" s="5">
         <v>55</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="6">
         <v>40</v>
       </c>
     </row>
     <row r="14" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="9">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
         <v>10</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -2052,18 +1987,18 @@
       <c r="H14" s="5">
         <v>78</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="6">
         <v>65</v>
       </c>
     </row>
     <row r="15" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="9">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
         <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -2079,18 +2014,18 @@
       <c r="H15" s="5">
         <v>82</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="6">
         <v>73.3333</v>
       </c>
     </row>
     <row r="16" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="9">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
         <v>10</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -2106,18 +2041,18 @@
       <c r="H16" s="5">
         <v>71</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="17" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="9">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
         <v>10</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -2133,18 +2068,18 @@
       <c r="H17" s="5">
         <v>74</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="6">
         <v>65</v>
       </c>
     </row>
     <row r="18" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="9">
-        <v>1</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
         <v>10</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -2160,18 +2095,18 @@
       <c r="H18" s="5">
         <v>80</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="6">
         <v>53.3333</v>
       </c>
     </row>
     <row r="19" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="9">
-        <v>1</v>
-      </c>
-      <c r="C19" s="9">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
         <v>10</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -2187,18 +2122,18 @@
       <c r="H19" s="5">
         <v>87</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="20" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="9">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9">
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
         <v>10</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -2214,18 +2149,18 @@
       <c r="H20" s="5">
         <v>92</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="6">
         <v>75</v>
       </c>
     </row>
     <row r="21" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="9">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9">
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
         <v>10</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -2241,18 +2176,18 @@
       <c r="H21" s="5">
         <v>96</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="6">
         <v>86.6667</v>
       </c>
     </row>
     <row r="22" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="9">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9">
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
         <v>10</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -2268,18 +2203,18 @@
       <c r="H22" s="5">
         <v>97</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="6">
         <v>90</v>
       </c>
     </row>
     <row r="23" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="9">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9">
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
         <v>10</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -2295,18 +2230,18 @@
       <c r="H23" s="5">
         <v>82</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="6">
         <v>55</v>
       </c>
     </row>
     <row r="24" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="9">
-        <v>1</v>
-      </c>
-      <c r="C24" s="9">
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
         <v>10</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -2322,18 +2257,18 @@
       <c r="H24" s="5">
         <v>92</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="6">
         <v>66.6667</v>
       </c>
     </row>
     <row r="25" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="9">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9">
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
         <v>10</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -2349,18 +2284,18 @@
       <c r="H25" s="5">
         <v>87</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="6">
         <v>80</v>
       </c>
     </row>
     <row r="26" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="9">
-        <v>1</v>
-      </c>
-      <c r="C26" s="9">
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
         <v>10</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -2376,18 +2311,18 @@
       <c r="H26" s="5">
         <v>80</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="6">
         <v>70</v>
       </c>
     </row>
     <row r="27" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="9">
-        <v>1</v>
-      </c>
-      <c r="C27" s="9">
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
         <v>10</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -2403,18 +2338,18 @@
       <c r="H27" s="5">
         <v>89</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="6">
         <v>80</v>
       </c>
     </row>
     <row r="28" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="9">
-        <v>1</v>
-      </c>
-      <c r="C28" s="9">
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
         <v>10</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -2430,18 +2365,18 @@
       <c r="H28" s="5">
         <v>99</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="29" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="9">
-        <v>1</v>
-      </c>
-      <c r="C29" s="9">
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
         <v>10</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -2457,18 +2392,18 @@
       <c r="H29" s="5">
         <v>70</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="30" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="9">
-        <v>1</v>
-      </c>
-      <c r="C30" s="9">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
         <v>10</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -2484,18 +2419,18 @@
       <c r="H30" s="5">
         <v>95</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="6">
         <v>80</v>
       </c>
     </row>
     <row r="31" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="9">
-        <v>1</v>
-      </c>
-      <c r="C31" s="9">
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
         <v>10</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -2511,18 +2446,18 @@
       <c r="H31" s="5">
         <v>39</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="32" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="9">
-        <v>1</v>
-      </c>
-      <c r="C32" s="9">
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
         <v>10</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -2538,18 +2473,18 @@
       <c r="H32" s="5">
         <v>96</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="6">
         <v>85</v>
       </c>
     </row>
     <row r="33" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="9">
-        <v>1</v>
-      </c>
-      <c r="C33" s="9">
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
         <v>10</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -2565,18 +2500,18 @@
       <c r="H33" s="5">
         <v>93</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="6">
         <v>73.3333</v>
       </c>
     </row>
     <row r="34" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="9">
-        <v>1</v>
-      </c>
-      <c r="C34" s="9">
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3">
         <v>10</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -2592,18 +2527,18 @@
       <c r="H34" s="5">
         <v>97</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="6">
         <v>80</v>
       </c>
     </row>
     <row r="35" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="9">
-        <v>1</v>
-      </c>
-      <c r="C35" s="9">
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
         <v>10</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -2619,18 +2554,18 @@
       <c r="H35" s="5">
         <v>95</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="6">
         <v>95</v>
       </c>
     </row>
     <row r="36" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="9">
-        <v>1</v>
-      </c>
-      <c r="C36" s="9">
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3">
         <v>10</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -2646,18 +2581,18 @@
       <c r="H36" s="5">
         <v>99</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="6">
         <v>93.3333</v>
       </c>
     </row>
     <row r="37" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="9">
-        <v>1</v>
-      </c>
-      <c r="C37" s="9">
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
         <v>10</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -2673,18 +2608,18 @@
       <c r="H37" s="5">
         <v>99</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="6">
         <v>90</v>
       </c>
     </row>
     <row r="38" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="9">
-        <v>1</v>
-      </c>
-      <c r="C38" s="9">
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3">
         <v>20</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -2700,18 +2635,18 @@
       <c r="H38" s="5">
         <v>50</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="39" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="9">
-        <v>1</v>
-      </c>
-      <c r="C39" s="9">
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3">
         <v>20</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -2727,18 +2662,18 @@
       <c r="H39" s="5">
         <v>60</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="6">
         <v>73.3333</v>
       </c>
     </row>
     <row r="40" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="9">
-        <v>1</v>
-      </c>
-      <c r="C40" s="9">
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3">
         <v>20</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -2754,18 +2689,18 @@
       <c r="H40" s="5">
         <v>10</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="41" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="9">
-        <v>1</v>
-      </c>
-      <c r="C41" s="9">
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3">
         <v>20</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -2781,18 +2716,18 @@
       <c r="H41" s="5">
         <v>12</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="42" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="9">
-        <v>1</v>
-      </c>
-      <c r="C42" s="9">
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3">
         <v>20</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -2808,18 +2743,18 @@
       <c r="H42" s="5">
         <v>49</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="6">
         <v>66.6667</v>
       </c>
     </row>
     <row r="43" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="9">
-        <v>1</v>
-      </c>
-      <c r="C43" s="9">
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3">
         <v>20</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -2835,18 +2770,18 @@
       <c r="H43" s="5">
         <v>66</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="6">
         <v>80</v>
       </c>
     </row>
     <row r="44" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="9">
-        <v>1</v>
-      </c>
-      <c r="C44" s="9">
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3">
         <v>20</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -2862,18 +2797,18 @@
       <c r="H44" s="5">
         <v>86</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="6">
         <v>85</v>
       </c>
     </row>
     <row r="45" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="9">
-        <v>1</v>
-      </c>
-      <c r="C45" s="9">
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3">
         <v>20</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -2889,18 +2824,18 @@
       <c r="H45" s="5">
         <v>67</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="6">
         <v>66.6667</v>
       </c>
     </row>
     <row r="46" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="9">
-        <v>1</v>
-      </c>
-      <c r="C46" s="9">
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3">
         <v>20</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -2916,18 +2851,18 @@
       <c r="H46" s="5">
         <v>78</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="6">
         <v>80</v>
       </c>
     </row>
     <row r="47" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="9">
-        <v>1</v>
-      </c>
-      <c r="C47" s="9">
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3">
         <v>20</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -2943,18 +2878,18 @@
       <c r="H47" s="5">
         <v>73</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="6">
         <v>70</v>
       </c>
     </row>
     <row r="48" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="9">
-        <v>1</v>
-      </c>
-      <c r="C48" s="9">
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3">
         <v>20</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -2970,18 +2905,18 @@
       <c r="H48" s="5">
         <v>31</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I48" s="6">
         <v>13.3333</v>
       </c>
     </row>
     <row r="49" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="9">
-        <v>1</v>
-      </c>
-      <c r="C49" s="9">
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3">
         <v>20</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -2997,18 +2932,18 @@
       <c r="H49" s="5">
         <v>30</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I49" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="50" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="9">
-        <v>1</v>
-      </c>
-      <c r="C50" s="9">
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3">
         <v>20</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -3024,18 +2959,18 @@
       <c r="H50" s="5">
         <v>87</v>
       </c>
-      <c r="I50" s="10">
+      <c r="I50" s="6">
         <v>65</v>
       </c>
     </row>
     <row r="51" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="9">
-        <v>1</v>
-      </c>
-      <c r="C51" s="9">
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3">
         <v>20</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -3051,18 +2986,18 @@
       <c r="H51" s="5">
         <v>86</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I51" s="6">
         <v>53.3333</v>
       </c>
     </row>
     <row r="52" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="9">
-        <v>1</v>
-      </c>
-      <c r="C52" s="9">
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3">
         <v>20</v>
       </c>
       <c r="D52" s="4" t="s">
@@ -3078,18 +3013,18 @@
       <c r="H52" s="5">
         <v>96</v>
       </c>
-      <c r="I52" s="10">
+      <c r="I52" s="6">
         <v>80</v>
       </c>
     </row>
     <row r="53" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="9">
-        <v>1</v>
-      </c>
-      <c r="C53" s="9">
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3">
         <v>20</v>
       </c>
       <c r="D53" s="4" t="s">
@@ -3105,18 +3040,18 @@
       <c r="H53" s="5">
         <v>84</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I53" s="6">
         <v>70</v>
       </c>
     </row>
     <row r="54" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="9">
-        <v>1</v>
-      </c>
-      <c r="C54" s="9">
+      <c r="B54" s="3">
+        <v>1</v>
+      </c>
+      <c r="C54" s="3">
         <v>20</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -3132,18 +3067,18 @@
       <c r="H54" s="5">
         <v>88</v>
       </c>
-      <c r="I54" s="10">
+      <c r="I54" s="6">
         <v>46.6667</v>
       </c>
     </row>
     <row r="55" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="9">
-        <v>1</v>
-      </c>
-      <c r="C55" s="9">
+      <c r="B55" s="3">
+        <v>1</v>
+      </c>
+      <c r="C55" s="3">
         <v>20</v>
       </c>
       <c r="D55" s="4" t="s">
@@ -3159,18 +3094,18 @@
       <c r="H55" s="5">
         <v>92</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I55" s="6">
         <v>80</v>
       </c>
     </row>
     <row r="56" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="9">
-        <v>1</v>
-      </c>
-      <c r="C56" s="9">
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3">
         <v>20</v>
       </c>
       <c r="D56" s="4" t="s">
@@ -3186,18 +3121,18 @@
       <c r="H56" s="5">
         <v>92</v>
       </c>
-      <c r="I56" s="10">
+      <c r="I56" s="6">
         <v>75</v>
       </c>
     </row>
     <row r="57" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="9">
-        <v>1</v>
-      </c>
-      <c r="C57" s="9">
+      <c r="B57" s="3">
+        <v>1</v>
+      </c>
+      <c r="C57" s="3">
         <v>20</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -3213,18 +3148,18 @@
       <c r="H57" s="5">
         <v>96</v>
       </c>
-      <c r="I57" s="10">
+      <c r="I57" s="6">
         <v>93.3333</v>
       </c>
     </row>
     <row r="58" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="9">
-        <v>1</v>
-      </c>
-      <c r="C58" s="9">
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3">
         <v>20</v>
       </c>
       <c r="D58" s="4" t="s">
@@ -3240,18 +3175,18 @@
       <c r="H58" s="5">
         <v>96</v>
       </c>
-      <c r="I58" s="10">
+      <c r="I58" s="6">
         <v>90</v>
       </c>
     </row>
     <row r="59" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B59" s="9">
-        <v>1</v>
-      </c>
-      <c r="C59" s="9">
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3">
         <v>20</v>
       </c>
       <c r="D59" s="4" t="s">
@@ -3267,18 +3202,18 @@
       <c r="H59" s="5">
         <v>82</v>
       </c>
-      <c r="I59" s="10">
+      <c r="I59" s="6">
         <v>45</v>
       </c>
     </row>
     <row r="60" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="9">
-        <v>1</v>
-      </c>
-      <c r="C60" s="9">
+      <c r="B60" s="3">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3">
         <v>20</v>
       </c>
       <c r="D60" s="4" t="s">
@@ -3294,18 +3229,18 @@
       <c r="H60" s="5">
         <v>90</v>
       </c>
-      <c r="I60" s="10">
+      <c r="I60" s="6">
         <v>53.3333</v>
       </c>
     </row>
     <row r="61" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="9">
-        <v>1</v>
-      </c>
-      <c r="C61" s="9">
+      <c r="B61" s="3">
+        <v>1</v>
+      </c>
+      <c r="C61" s="3">
         <v>20</v>
       </c>
       <c r="D61" s="4" t="s">
@@ -3321,18 +3256,18 @@
       <c r="H61" s="5">
         <v>97</v>
       </c>
-      <c r="I61" s="10">
+      <c r="I61" s="6">
         <v>90</v>
       </c>
     </row>
     <row r="62" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="9">
-        <v>1</v>
-      </c>
-      <c r="C62" s="9">
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3">
         <v>20</v>
       </c>
       <c r="D62" s="4" t="s">
@@ -3348,18 +3283,18 @@
       <c r="H62" s="5">
         <v>98</v>
       </c>
-      <c r="I62" s="10">
+      <c r="I62" s="6">
         <v>95</v>
       </c>
     </row>
     <row r="63" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="9">
-        <v>1</v>
-      </c>
-      <c r="C63" s="9">
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
+      <c r="C63" s="3">
         <v>20</v>
       </c>
       <c r="D63" s="4" t="s">
@@ -3375,18 +3310,18 @@
       <c r="H63" s="5">
         <v>97</v>
       </c>
-      <c r="I63" s="10">
+      <c r="I63" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="64" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B64" s="9">
-        <v>1</v>
-      </c>
-      <c r="C64" s="9">
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
+      <c r="C64" s="3">
         <v>20</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -3402,18 +3337,18 @@
       <c r="H64" s="5">
         <v>99</v>
       </c>
-      <c r="I64" s="10">
+      <c r="I64" s="6">
         <v>90</v>
       </c>
     </row>
     <row r="65" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="9">
-        <v>1</v>
-      </c>
-      <c r="C65" s="9">
+      <c r="B65" s="3">
+        <v>1</v>
+      </c>
+      <c r="C65" s="3">
         <v>20</v>
       </c>
       <c r="D65" s="4" t="s">
@@ -3429,18 +3364,18 @@
       <c r="H65" s="5">
         <v>98</v>
       </c>
-      <c r="I65" s="10">
+      <c r="I65" s="6">
         <v>95</v>
       </c>
     </row>
     <row r="66" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B66" s="9">
-        <v>1</v>
-      </c>
-      <c r="C66" s="9">
+      <c r="B66" s="3">
+        <v>1</v>
+      </c>
+      <c r="C66" s="3">
         <v>20</v>
       </c>
       <c r="D66" s="4" t="s">
@@ -3456,18 +3391,18 @@
       <c r="H66" s="5">
         <v>98</v>
       </c>
-      <c r="I66" s="10">
+      <c r="I66" s="6">
         <v>86.6667</v>
       </c>
     </row>
     <row r="67" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="9">
-        <v>1</v>
-      </c>
-      <c r="C67" s="9">
+      <c r="B67" s="3">
+        <v>1</v>
+      </c>
+      <c r="C67" s="3">
         <v>20</v>
       </c>
       <c r="D67" s="4" t="s">
@@ -3483,18 +3418,18 @@
       <c r="H67" s="5">
         <v>87</v>
       </c>
-      <c r="I67" s="10">
+      <c r="I67" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="68" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="9">
-        <v>1</v>
-      </c>
-      <c r="C68" s="9">
+      <c r="B68" s="3">
+        <v>1</v>
+      </c>
+      <c r="C68" s="3">
         <v>20</v>
       </c>
       <c r="D68" s="4" t="s">
@@ -3510,18 +3445,18 @@
       <c r="H68" s="5">
         <v>95</v>
       </c>
-      <c r="I68" s="10">
+      <c r="I68" s="6">
         <v>95</v>
       </c>
     </row>
     <row r="69" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="9">
-        <v>1</v>
-      </c>
-      <c r="C69" s="9">
+      <c r="B69" s="3">
+        <v>1</v>
+      </c>
+      <c r="C69" s="3">
         <v>20</v>
       </c>
       <c r="D69" s="4" t="s">
@@ -3537,18 +3472,18 @@
       <c r="H69" s="5">
         <v>98</v>
       </c>
-      <c r="I69" s="10">
+      <c r="I69" s="6">
         <v>93.3333</v>
       </c>
     </row>
     <row r="70" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B70" s="9">
-        <v>1</v>
-      </c>
-      <c r="C70" s="9">
+      <c r="B70" s="3">
+        <v>1</v>
+      </c>
+      <c r="C70" s="3">
         <v>20</v>
       </c>
       <c r="D70" s="4" t="s">
@@ -3564,18 +3499,18 @@
       <c r="H70" s="5">
         <v>100</v>
       </c>
-      <c r="I70" s="10">
+      <c r="I70" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="71" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B71" s="9">
-        <v>1</v>
-      </c>
-      <c r="C71" s="9">
+      <c r="B71" s="3">
+        <v>1</v>
+      </c>
+      <c r="C71" s="3">
         <v>20</v>
       </c>
       <c r="D71" s="4" t="s">
@@ -3591,18 +3526,18 @@
       <c r="H71" s="5">
         <v>97</v>
       </c>
-      <c r="I71" s="10">
+      <c r="I71" s="6">
         <v>85</v>
       </c>
     </row>
     <row r="72" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B72" s="9">
-        <v>1</v>
-      </c>
-      <c r="C72" s="9">
+      <c r="B72" s="3">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3">
         <v>20</v>
       </c>
       <c r="D72" s="4" t="s">
@@ -3618,18 +3553,18 @@
       <c r="H72" s="5">
         <v>96</v>
       </c>
-      <c r="I72" s="10">
+      <c r="I72" s="6">
         <v>80</v>
       </c>
     </row>
     <row r="73" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B73" s="9">
-        <v>1</v>
-      </c>
-      <c r="C73" s="9">
+      <c r="B73" s="3">
+        <v>1</v>
+      </c>
+      <c r="C73" s="3">
         <v>20</v>
       </c>
       <c r="D73" s="4" t="s">
@@ -3645,18 +3580,18 @@
       <c r="H73" s="5">
         <v>95</v>
       </c>
-      <c r="I73" s="10">
+      <c r="I73" s="6">
         <v>70</v>
       </c>
     </row>
     <row r="74" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B74" s="9">
-        <v>2</v>
-      </c>
-      <c r="C74" s="9" t="s">
+      <c r="B74" s="3">
+        <v>2</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D74" s="4" t="s">
@@ -3672,18 +3607,18 @@
       <c r="H74" s="5">
         <v>16</v>
       </c>
-      <c r="I74" s="10">
+      <c r="I74" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="75" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B75" s="9">
-        <v>2</v>
-      </c>
-      <c r="C75" s="9" t="s">
+      <c r="B75" s="3">
+        <v>2</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D75" s="4" t="s">
@@ -3699,18 +3634,18 @@
       <c r="H75" s="5">
         <v>11</v>
       </c>
-      <c r="I75" s="10">
+      <c r="I75" s="6">
         <v>13.3333</v>
       </c>
     </row>
     <row r="76" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B76" s="9">
-        <v>2</v>
-      </c>
-      <c r="C76" s="9" t="s">
+      <c r="B76" s="3">
+        <v>2</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D76" s="4" t="s">
@@ -3726,18 +3661,18 @@
       <c r="H76" s="5">
         <v>18</v>
       </c>
-      <c r="I76" s="10">
+      <c r="I76" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="77" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B77" s="9">
-        <v>2</v>
-      </c>
-      <c r="C77" s="9" t="s">
+      <c r="B77" s="3">
+        <v>2</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D77" s="4" t="s">
@@ -3753,18 +3688,18 @@
       <c r="H77" s="5">
         <v>11</v>
       </c>
-      <c r="I77" s="10">
+      <c r="I77" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="78" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B78" s="9">
-        <v>2</v>
-      </c>
-      <c r="C78" s="9" t="s">
+      <c r="B78" s="3">
+        <v>2</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D78" s="4" t="s">
@@ -3780,18 +3715,18 @@
       <c r="H78" s="5">
         <v>10</v>
       </c>
-      <c r="I78" s="10">
+      <c r="I78" s="6">
         <v>6.6667</v>
       </c>
     </row>
     <row r="79" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B79" s="9">
-        <v>2</v>
-      </c>
-      <c r="C79" s="9" t="s">
+      <c r="B79" s="3">
+        <v>2</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D79" s="4" t="s">
@@ -3807,18 +3742,18 @@
       <c r="H79" s="5">
         <v>10</v>
       </c>
-      <c r="I79" s="10">
+      <c r="I79" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="80" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B80" s="9">
-        <v>2</v>
-      </c>
-      <c r="C80" s="9" t="s">
+      <c r="B80" s="3">
+        <v>2</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D80" s="4" t="s">
@@ -3834,18 +3769,18 @@
       <c r="H80" s="5">
         <v>10</v>
       </c>
-      <c r="I80" s="10">
+      <c r="I80" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="81" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B81" s="9">
-        <v>2</v>
-      </c>
-      <c r="C81" s="9" t="s">
+      <c r="B81" s="3">
+        <v>2</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D81" s="4" t="s">
@@ -3861,18 +3796,18 @@
       <c r="H81" s="5">
         <v>17</v>
       </c>
-      <c r="I81" s="10">
+      <c r="I81" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="82" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B82" s="9">
-        <v>2</v>
-      </c>
-      <c r="C82" s="9" t="s">
+      <c r="B82" s="3">
+        <v>2</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D82" s="4" t="s">
@@ -3888,18 +3823,18 @@
       <c r="H82" s="5">
         <v>13</v>
       </c>
-      <c r="I82" s="10">
+      <c r="I82" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="83" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B83" s="9">
-        <v>2</v>
-      </c>
-      <c r="C83" s="9" t="s">
+      <c r="B83" s="3">
+        <v>2</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D83" s="4" t="s">
@@ -3915,18 +3850,18 @@
       <c r="H83" s="5">
         <v>10</v>
       </c>
-      <c r="I83" s="10">
+      <c r="I83" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="84" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B84" s="9">
-        <v>2</v>
-      </c>
-      <c r="C84" s="9" t="s">
+      <c r="B84" s="3">
+        <v>2</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D84" s="4" t="s">
@@ -3942,18 +3877,18 @@
       <c r="H84" s="5">
         <v>35</v>
       </c>
-      <c r="I84" s="10">
+      <c r="I84" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="85" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B85" s="9">
-        <v>2</v>
-      </c>
-      <c r="C85" s="9" t="s">
+      <c r="B85" s="3">
+        <v>2</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D85" s="4" t="s">
@@ -3969,18 +3904,18 @@
       <c r="H85" s="5">
         <v>11</v>
       </c>
-      <c r="I85" s="10">
+      <c r="I85" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="86" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B86" s="9">
-        <v>2</v>
-      </c>
-      <c r="C86" s="9" t="s">
+      <c r="B86" s="3">
+        <v>2</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D86" s="4" t="s">
@@ -3996,18 +3931,18 @@
       <c r="H86" s="5">
         <v>26</v>
       </c>
-      <c r="I86" s="10">
+      <c r="I86" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="87" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="9">
-        <v>2</v>
-      </c>
-      <c r="C87" s="9" t="s">
+      <c r="B87" s="3">
+        <v>2</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D87" s="4" t="s">
@@ -4023,18 +3958,18 @@
       <c r="H87" s="5">
         <v>11</v>
       </c>
-      <c r="I87" s="10">
+      <c r="I87" s="6">
         <v>6.6667</v>
       </c>
     </row>
     <row r="88" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B88" s="9">
-        <v>2</v>
-      </c>
-      <c r="C88" s="9" t="s">
+      <c r="B88" s="3">
+        <v>2</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D88" s="4" t="s">
@@ -4050,18 +3985,18 @@
       <c r="H88" s="5">
         <v>17</v>
       </c>
-      <c r="I88" s="10">
+      <c r="I88" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="89" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B89" s="9">
-        <v>2</v>
-      </c>
-      <c r="C89" s="9" t="s">
+      <c r="B89" s="3">
+        <v>2</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D89" s="4" t="s">
@@ -4077,18 +4012,18 @@
       <c r="H89" s="5">
         <v>21</v>
       </c>
-      <c r="I89" s="10">
+      <c r="I89" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="90" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B90" s="9">
-        <v>2</v>
-      </c>
-      <c r="C90" s="9" t="s">
+      <c r="B90" s="3">
+        <v>2</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D90" s="4" t="s">
@@ -4104,18 +4039,18 @@
       <c r="H90" s="5">
         <v>34</v>
       </c>
-      <c r="I90" s="10">
+      <c r="I90" s="6">
         <v>33.3333</v>
       </c>
     </row>
     <row r="91" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B91" s="9">
-        <v>2</v>
-      </c>
-      <c r="C91" s="9" t="s">
+      <c r="B91" s="3">
+        <v>2</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D91" s="4" t="s">
@@ -4131,18 +4066,18 @@
       <c r="H91" s="5">
         <v>39</v>
       </c>
-      <c r="I91" s="10">
+      <c r="I91" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="92" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B92" s="9">
-        <v>2</v>
-      </c>
-      <c r="C92" s="9" t="s">
+      <c r="B92" s="3">
+        <v>2</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D92" s="4" t="s">
@@ -4158,18 +4093,18 @@
       <c r="H92" s="5">
         <v>66</v>
       </c>
-      <c r="I92" s="10">
+      <c r="I92" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="93" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B93" s="9">
-        <v>2</v>
-      </c>
-      <c r="C93" s="9" t="s">
+      <c r="B93" s="3">
+        <v>2</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D93" s="4" t="s">
@@ -4185,18 +4120,18 @@
       <c r="H93" s="5">
         <v>76</v>
       </c>
-      <c r="I93" s="10">
+      <c r="I93" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="94" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B94" s="9">
-        <v>2</v>
-      </c>
-      <c r="C94" s="9" t="s">
+      <c r="B94" s="3">
+        <v>2</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D94" s="4" t="s">
@@ -4212,18 +4147,18 @@
       <c r="H94" s="5">
         <v>76</v>
       </c>
-      <c r="I94" s="10">
+      <c r="I94" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="95" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B95" s="9">
-        <v>2</v>
-      </c>
-      <c r="C95" s="9" t="s">
+      <c r="B95" s="3">
+        <v>2</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D95" s="4" t="s">
@@ -4239,18 +4174,18 @@
       <c r="H95" s="5">
         <v>58</v>
       </c>
-      <c r="I95" s="10">
+      <c r="I95" s="6">
         <v>45</v>
       </c>
     </row>
     <row r="96" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B96" s="9">
-        <v>2</v>
-      </c>
-      <c r="C96" s="9" t="s">
+      <c r="B96" s="3">
+        <v>2</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D96" s="4" t="s">
@@ -4266,18 +4201,18 @@
       <c r="H96" s="5">
         <v>60</v>
       </c>
-      <c r="I96" s="10">
+      <c r="I96" s="6">
         <v>26.6667</v>
       </c>
     </row>
     <row r="97" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B97" s="9">
-        <v>2</v>
-      </c>
-      <c r="C97" s="9" t="s">
+      <c r="B97" s="3">
+        <v>2</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D97" s="4" t="s">
@@ -4293,18 +4228,18 @@
       <c r="H97" s="5">
         <v>72</v>
       </c>
-      <c r="I97" s="10">
+      <c r="I97" s="6">
         <v>40</v>
       </c>
     </row>
     <row r="98" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B98" s="9">
-        <v>2</v>
-      </c>
-      <c r="C98" s="9" t="s">
+      <c r="B98" s="3">
+        <v>2</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D98" s="4" t="s">
@@ -4320,18 +4255,18 @@
       <c r="H98" s="5">
         <v>18</v>
       </c>
-      <c r="I98" s="10">
+      <c r="I98" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="99" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="9">
-        <v>2</v>
-      </c>
-      <c r="C99" s="9" t="s">
+      <c r="B99" s="3">
+        <v>2</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D99" s="4" t="s">
@@ -4347,18 +4282,18 @@
       <c r="H99" s="5">
         <v>10</v>
       </c>
-      <c r="I99" s="10">
+      <c r="I99" s="6">
         <v>6.6667</v>
       </c>
     </row>
     <row r="100" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B100" s="9">
-        <v>2</v>
-      </c>
-      <c r="C100" s="9" t="s">
+      <c r="B100" s="3">
+        <v>2</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D100" s="4" t="s">
@@ -4374,18 +4309,18 @@
       <c r="H100" s="5">
         <v>10</v>
       </c>
-      <c r="I100" s="10">
+      <c r="I100" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="101" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B101" s="9">
-        <v>2</v>
-      </c>
-      <c r="C101" s="9" t="s">
+      <c r="B101" s="3">
+        <v>2</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D101" s="4" t="s">
@@ -4401,18 +4336,18 @@
       <c r="H101" s="5">
         <v>47</v>
       </c>
-      <c r="I101" s="10">
+      <c r="I101" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="102" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B102" s="9">
-        <v>2</v>
-      </c>
-      <c r="C102" s="9" t="s">
+      <c r="B102" s="3">
+        <v>2</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="4" t="s">
@@ -4428,18 +4363,18 @@
       <c r="H102" s="5">
         <v>49</v>
       </c>
-      <c r="I102" s="10">
+      <c r="I102" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="103" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B103" s="9">
-        <v>2</v>
-      </c>
-      <c r="C103" s="9" t="s">
+      <c r="B103" s="3">
+        <v>2</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D103" s="4" t="s">
@@ -4455,18 +4390,18 @@
       <c r="H103" s="5">
         <v>10</v>
       </c>
-      <c r="I103" s="10">
+      <c r="I103" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="104" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B104" s="9">
-        <v>2</v>
-      </c>
-      <c r="C104" s="9" t="s">
+      <c r="B104" s="3">
+        <v>2</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D104" s="4" t="s">
@@ -4482,18 +4417,18 @@
       <c r="H104" s="5">
         <v>57</v>
       </c>
-      <c r="I104" s="10">
+      <c r="I104" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="105" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B105" s="9">
-        <v>2</v>
-      </c>
-      <c r="C105" s="9" t="s">
+      <c r="B105" s="3">
+        <v>2</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D105" s="4" t="s">
@@ -4509,18 +4444,18 @@
       <c r="H105" s="5">
         <v>94</v>
       </c>
-      <c r="I105" s="10">
+      <c r="I105" s="6">
         <v>86.6667</v>
       </c>
     </row>
     <row r="106" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B106" s="9">
-        <v>2</v>
-      </c>
-      <c r="C106" s="9" t="s">
+      <c r="B106" s="3">
+        <v>2</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D106" s="4" t="s">
@@ -4536,18 +4471,18 @@
       <c r="H106" s="5">
         <v>60</v>
       </c>
-      <c r="I106" s="10">
+      <c r="I106" s="6">
         <v>40</v>
       </c>
     </row>
     <row r="107" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B107" s="9">
-        <v>2</v>
-      </c>
-      <c r="C107" s="9" t="s">
+      <c r="B107" s="3">
+        <v>2</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D107" s="4" t="s">
@@ -4563,18 +4498,18 @@
       <c r="H107" s="5">
         <v>84</v>
       </c>
-      <c r="I107" s="10">
+      <c r="I107" s="6">
         <v>80</v>
       </c>
     </row>
     <row r="108" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B108" s="9">
-        <v>2</v>
-      </c>
-      <c r="C108" s="9" t="s">
+      <c r="B108" s="3">
+        <v>2</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D108" s="4" t="s">
@@ -4590,18 +4525,18 @@
       <c r="H108" s="5">
         <v>41</v>
       </c>
-      <c r="I108" s="10">
+      <c r="I108" s="6">
         <v>40</v>
       </c>
     </row>
     <row r="109" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B109" s="9">
-        <v>2</v>
-      </c>
-      <c r="C109" s="9" t="s">
+      <c r="B109" s="3">
+        <v>2</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D109" s="4" t="s">
@@ -4617,18 +4552,18 @@
       <c r="H109" s="5">
         <v>73</v>
       </c>
-      <c r="I109" s="10">
+      <c r="I109" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="110" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A110" s="8" t="s">
+      <c r="A110" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B110" s="9">
-        <v>2</v>
-      </c>
-      <c r="C110" s="9" t="s">
+      <c r="B110" s="3">
+        <v>2</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D110" s="4" t="s">
@@ -4644,18 +4579,18 @@
       <c r="H110" s="5">
         <v>10</v>
       </c>
-      <c r="I110" s="10">
+      <c r="I110" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="111" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B111" s="9">
-        <v>2</v>
-      </c>
-      <c r="C111" s="9" t="s">
+      <c r="B111" s="3">
+        <v>2</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D111" s="4" t="s">
@@ -4671,18 +4606,18 @@
       <c r="H111" s="5">
         <v>10</v>
       </c>
-      <c r="I111" s="10">
+      <c r="I111" s="6">
         <v>13.3333</v>
       </c>
     </row>
     <row r="112" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B112" s="9">
-        <v>2</v>
-      </c>
-      <c r="C112" s="9" t="s">
+      <c r="B112" s="3">
+        <v>2</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D112" s="4" t="s">
@@ -4698,18 +4633,18 @@
       <c r="H112" s="5">
         <v>50</v>
       </c>
-      <c r="I112" s="10">
+      <c r="I112" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="113" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B113" s="9">
-        <v>2</v>
-      </c>
-      <c r="C113" s="9" t="s">
+      <c r="B113" s="3">
+        <v>2</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D113" s="4" t="s">
@@ -4725,18 +4660,18 @@
       <c r="H113" s="5">
         <v>10</v>
       </c>
-      <c r="I113" s="10">
+      <c r="I113" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="114" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B114" s="9">
-        <v>2</v>
-      </c>
-      <c r="C114" s="9" t="s">
+      <c r="B114" s="3">
+        <v>2</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D114" s="4" t="s">
@@ -4752,18 +4687,18 @@
       <c r="H114" s="5">
         <v>10</v>
       </c>
-      <c r="I114" s="10">
+      <c r="I114" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="115" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B115" s="9">
-        <v>2</v>
-      </c>
-      <c r="C115" s="9" t="s">
+      <c r="B115" s="3">
+        <v>2</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D115" s="4" t="s">
@@ -4779,18 +4714,18 @@
       <c r="H115" s="5">
         <v>40</v>
       </c>
-      <c r="I115" s="10">
+      <c r="I115" s="6">
         <v>40</v>
       </c>
     </row>
     <row r="116" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B116" s="9">
-        <v>2</v>
-      </c>
-      <c r="C116" s="9" t="s">
+      <c r="B116" s="3">
+        <v>2</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D116" s="4" t="s">
@@ -4806,18 +4741,18 @@
       <c r="H116" s="5">
         <v>10</v>
       </c>
-      <c r="I116" s="10">
+      <c r="I116" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="117" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B117" s="9">
-        <v>2</v>
-      </c>
-      <c r="C117" s="9" t="s">
+      <c r="B117" s="3">
+        <v>2</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D117" s="4" t="s">
@@ -4833,18 +4768,18 @@
       <c r="H117" s="5">
         <v>20</v>
       </c>
-      <c r="I117" s="10">
+      <c r="I117" s="6">
         <v>13.3333</v>
       </c>
     </row>
     <row r="118" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A118" s="8" t="s">
+      <c r="A118" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B118" s="9">
-        <v>2</v>
-      </c>
-      <c r="C118" s="9" t="s">
+      <c r="B118" s="3">
+        <v>2</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D118" s="4" t="s">
@@ -4860,18 +4795,18 @@
       <c r="H118" s="5">
         <v>14</v>
       </c>
-      <c r="I118" s="10">
+      <c r="I118" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="119" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A119" s="8" t="s">
+      <c r="A119" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B119" s="9">
-        <v>2</v>
-      </c>
-      <c r="C119" s="9" t="s">
+      <c r="B119" s="3">
+        <v>2</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D119" s="4" t="s">
@@ -4887,18 +4822,18 @@
       <c r="H119" s="5">
         <v>4</v>
       </c>
-      <c r="I119" s="10">
+      <c r="I119" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="120" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A120" s="8" t="s">
+      <c r="A120" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B120" s="9">
-        <v>2</v>
-      </c>
-      <c r="C120" s="9" t="s">
+      <c r="B120" s="3">
+        <v>2</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D120" s="4" t="s">
@@ -4914,18 +4849,18 @@
       <c r="H120" s="5">
         <v>29</v>
       </c>
-      <c r="I120" s="10">
+      <c r="I120" s="6">
         <v>6.6667</v>
       </c>
     </row>
     <row r="121" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A121" s="8" t="s">
+      <c r="A121" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B121" s="9">
-        <v>2</v>
-      </c>
-      <c r="C121" s="9" t="s">
+      <c r="B121" s="3">
+        <v>2</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D121" s="4" t="s">
@@ -4941,18 +4876,18 @@
       <c r="H121" s="5">
         <v>37</v>
       </c>
-      <c r="I121" s="10">
+      <c r="I121" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="122" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A122" s="8" t="s">
+      <c r="A122" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B122" s="9">
-        <v>2</v>
-      </c>
-      <c r="C122" s="9" t="s">
+      <c r="B122" s="3">
+        <v>2</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D122" s="4" t="s">
@@ -4968,18 +4903,18 @@
       <c r="H122" s="5">
         <v>76</v>
       </c>
-      <c r="I122" s="10">
+      <c r="I122" s="6">
         <v>55</v>
       </c>
     </row>
     <row r="123" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A123" s="8" t="s">
+      <c r="A123" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B123" s="9">
-        <v>2</v>
-      </c>
-      <c r="C123" s="9" t="s">
+      <c r="B123" s="3">
+        <v>2</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D123" s="4" t="s">
@@ -4995,18 +4930,18 @@
       <c r="H123" s="5">
         <v>40</v>
       </c>
-      <c r="I123" s="10">
+      <c r="I123" s="6">
         <v>46.6667</v>
       </c>
     </row>
     <row r="124" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A124" s="8" t="s">
+      <c r="A124" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B124" s="9">
-        <v>2</v>
-      </c>
-      <c r="C124" s="9" t="s">
+      <c r="B124" s="3">
+        <v>2</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D124" s="4" t="s">
@@ -5022,18 +4957,18 @@
       <c r="H124" s="5">
         <v>60</v>
       </c>
-      <c r="I124" s="10">
+      <c r="I124" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="125" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B125" s="9">
-        <v>2</v>
-      </c>
-      <c r="C125" s="9" t="s">
+      <c r="B125" s="3">
+        <v>2</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D125" s="4" t="s">
@@ -5049,18 +4984,18 @@
       <c r="H125" s="5">
         <v>83</v>
       </c>
-      <c r="I125" s="10">
+      <c r="I125" s="6">
         <v>65</v>
       </c>
     </row>
     <row r="126" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A126" s="8" t="s">
+      <c r="A126" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B126" s="9">
-        <v>2</v>
-      </c>
-      <c r="C126" s="9" t="s">
+      <c r="B126" s="3">
+        <v>2</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D126" s="4" t="s">
@@ -5076,18 +5011,18 @@
       <c r="H126" s="5">
         <v>66</v>
       </c>
-      <c r="I126" s="10">
+      <c r="I126" s="6">
         <v>26.6667</v>
       </c>
     </row>
     <row r="127" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A127" s="8" t="s">
+      <c r="A127" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B127" s="9">
-        <v>2</v>
-      </c>
-      <c r="C127" s="9" t="s">
+      <c r="B127" s="3">
+        <v>2</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D127" s="4" t="s">
@@ -5103,18 +5038,18 @@
       <c r="H127" s="5">
         <v>25</v>
       </c>
-      <c r="I127" s="10">
+      <c r="I127" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="128" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A128" s="8" t="s">
+      <c r="A128" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B128" s="9">
-        <v>2</v>
-      </c>
-      <c r="C128" s="9" t="s">
+      <c r="B128" s="3">
+        <v>2</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D128" s="4" t="s">
@@ -5130,18 +5065,18 @@
       <c r="H128" s="5">
         <v>97</v>
       </c>
-      <c r="I128" s="10">
+      <c r="I128" s="6">
         <v>90</v>
       </c>
     </row>
     <row r="129" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A129" s="8" t="s">
+      <c r="A129" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B129" s="9">
-        <v>2</v>
-      </c>
-      <c r="C129" s="9" t="s">
+      <c r="B129" s="3">
+        <v>2</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D129" s="4" t="s">
@@ -5157,18 +5092,18 @@
       <c r="H129" s="5">
         <v>88</v>
       </c>
-      <c r="I129" s="10">
+      <c r="I129" s="6">
         <v>80</v>
       </c>
     </row>
     <row r="130" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A130" s="8" t="s">
+      <c r="A130" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B130" s="9">
-        <v>2</v>
-      </c>
-      <c r="C130" s="9" t="s">
+      <c r="B130" s="3">
+        <v>2</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D130" s="4" t="s">
@@ -5184,18 +5119,18 @@
       <c r="H130" s="5">
         <v>89</v>
       </c>
-      <c r="I130" s="10">
+      <c r="I130" s="6">
         <v>70</v>
       </c>
     </row>
     <row r="131" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A131" s="8" t="s">
+      <c r="A131" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B131" s="9">
-        <v>2</v>
-      </c>
-      <c r="C131" s="9" t="s">
+      <c r="B131" s="3">
+        <v>2</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D131" s="4" t="s">
@@ -5211,18 +5146,18 @@
       <c r="H131" s="5">
         <v>93</v>
       </c>
-      <c r="I131" s="10">
+      <c r="I131" s="6">
         <v>90</v>
       </c>
     </row>
     <row r="132" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A132" s="8" t="s">
+      <c r="A132" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B132" s="9">
-        <v>2</v>
-      </c>
-      <c r="C132" s="9" t="s">
+      <c r="B132" s="3">
+        <v>2</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D132" s="4" t="s">
@@ -5238,18 +5173,18 @@
       <c r="H132" s="5">
         <v>94</v>
       </c>
-      <c r="I132" s="10">
+      <c r="I132" s="6">
         <v>80</v>
       </c>
     </row>
     <row r="133" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A133" s="8" t="s">
+      <c r="A133" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B133" s="9">
-        <v>2</v>
-      </c>
-      <c r="C133" s="9" t="s">
+      <c r="B133" s="3">
+        <v>2</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D133" s="4" t="s">
@@ -5265,18 +5200,18 @@
       <c r="H133" s="5">
         <v>97</v>
       </c>
-      <c r="I133" s="10">
+      <c r="I133" s="6">
         <v>90</v>
       </c>
     </row>
     <row r="134" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A134" s="8" t="s">
+      <c r="A134" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B134" s="9">
-        <v>2</v>
-      </c>
-      <c r="C134" s="9" t="s">
+      <c r="B134" s="3">
+        <v>2</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D134" s="4" t="s">
@@ -5292,18 +5227,18 @@
       <c r="H134" s="5">
         <v>74</v>
       </c>
-      <c r="I134" s="10">
+      <c r="I134" s="6">
         <v>65</v>
       </c>
     </row>
     <row r="135" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B135" s="9">
-        <v>2</v>
-      </c>
-      <c r="C135" s="9" t="s">
+      <c r="B135" s="3">
+        <v>2</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D135" s="4" t="s">
@@ -5319,18 +5254,18 @@
       <c r="H135" s="5">
         <v>80</v>
       </c>
-      <c r="I135" s="10">
+      <c r="I135" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="136" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A136" s="8" t="s">
+      <c r="A136" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B136" s="9">
-        <v>2</v>
-      </c>
-      <c r="C136" s="9" t="s">
+      <c r="B136" s="3">
+        <v>2</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D136" s="4" t="s">
@@ -5346,18 +5281,18 @@
       <c r="H136" s="5">
         <v>58</v>
       </c>
-      <c r="I136" s="10">
+      <c r="I136" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="137" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A137" s="8" t="s">
+      <c r="A137" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B137" s="9">
-        <v>2</v>
-      </c>
-      <c r="C137" s="9" t="s">
+      <c r="B137" s="3">
+        <v>2</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D137" s="4" t="s">
@@ -5373,18 +5308,18 @@
       <c r="H137" s="5">
         <v>49</v>
       </c>
-      <c r="I137" s="10">
+      <c r="I137" s="6">
         <v>55</v>
       </c>
     </row>
     <row r="138" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A138" s="8" t="s">
+      <c r="A138" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B138" s="9">
-        <v>2</v>
-      </c>
-      <c r="C138" s="9" t="s">
+      <c r="B138" s="3">
+        <v>2</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D138" s="4" t="s">
@@ -5400,18 +5335,18 @@
       <c r="H138" s="5">
         <v>58</v>
       </c>
-      <c r="I138" s="10">
+      <c r="I138" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="139" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A139" s="8" t="s">
+      <c r="A139" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B139" s="9">
-        <v>2</v>
-      </c>
-      <c r="C139" s="9" t="s">
+      <c r="B139" s="3">
+        <v>2</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D139" s="4" t="s">
@@ -5427,18 +5362,18 @@
       <c r="H139" s="5">
         <v>63</v>
       </c>
-      <c r="I139" s="10">
+      <c r="I139" s="6">
         <v>70</v>
       </c>
     </row>
     <row r="140" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A140" s="8" t="s">
+      <c r="A140" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B140" s="9">
-        <v>2</v>
-      </c>
-      <c r="C140" s="9" t="s">
+      <c r="B140" s="3">
+        <v>2</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D140" s="4" t="s">
@@ -5454,18 +5389,18 @@
       <c r="H140" s="5">
         <v>95</v>
       </c>
-      <c r="I140" s="10">
+      <c r="I140" s="6">
         <v>90</v>
       </c>
     </row>
     <row r="141" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A141" s="8" t="s">
+      <c r="A141" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B141" s="9">
-        <v>2</v>
-      </c>
-      <c r="C141" s="9" t="s">
+      <c r="B141" s="3">
+        <v>2</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D141" s="4" t="s">
@@ -5481,18 +5416,18 @@
       <c r="H141" s="5">
         <v>97</v>
       </c>
-      <c r="I141" s="10">
+      <c r="I141" s="6">
         <v>93.3333</v>
       </c>
     </row>
     <row r="142" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A142" s="8" t="s">
+      <c r="A142" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B142" s="9">
-        <v>2</v>
-      </c>
-      <c r="C142" s="9" t="s">
+      <c r="B142" s="3">
+        <v>2</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D142" s="4" t="s">
@@ -5508,18 +5443,18 @@
       <c r="H142" s="5">
         <v>98</v>
       </c>
-      <c r="I142" s="10">
+      <c r="I142" s="6">
         <v>90</v>
       </c>
     </row>
     <row r="143" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A143" s="8" t="s">
+      <c r="A143" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B143" s="9">
-        <v>2</v>
-      </c>
-      <c r="C143" s="9" t="s">
+      <c r="B143" s="3">
+        <v>2</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D143" s="4" t="s">
@@ -5535,18 +5470,18 @@
       <c r="H143" s="5">
         <v>91</v>
       </c>
-      <c r="I143" s="10">
+      <c r="I143" s="6">
         <v>80</v>
       </c>
     </row>
     <row r="144" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A144" s="8" t="s">
+      <c r="A144" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B144" s="9">
-        <v>2</v>
-      </c>
-      <c r="C144" s="9" t="s">
+      <c r="B144" s="3">
+        <v>2</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D144" s="4" t="s">
@@ -5562,18 +5497,18 @@
       <c r="H144" s="5">
         <v>93</v>
       </c>
-      <c r="I144" s="10">
+      <c r="I144" s="6">
         <v>80</v>
       </c>
     </row>
     <row r="145" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A145" s="8" t="s">
+      <c r="A145" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B145" s="9">
-        <v>2</v>
-      </c>
-      <c r="C145" s="9" t="s">
+      <c r="B145" s="3">
+        <v>2</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D145" s="4" t="s">
@@ -5589,7 +5524,7 @@
       <c r="H145" s="5">
         <v>88</v>
       </c>
-      <c r="I145" s="10">
+      <c r="I145" s="6">
         <v>70</v>
       </c>
     </row>
@@ -5600,500 +5535,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="5.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="35.1" customHeight="1" spans="2:9">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" ht="16.5"/>
-    <row r="3" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" ht="15.95" customHeight="1"/>
-    <row r="5" ht="16.5"/>
-    <row r="6" ht="56.1" customHeight="1" spans="1:9">
-      <c r="A6" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="9">
-        <v>2</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" ht="16.5"/>
-    <row r="12" ht="56.1" customHeight="1" spans="1:9">
-      <c r="A12" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
-        <v>10</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="4">
-        <v>10</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="18" ht="16.5"/>
-    <row r="19" ht="56.1" customHeight="1" spans="1:9">
-      <c r="A19" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="20" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="4">
-        <v>10</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4">
-        <v>10</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" ht="16.5"/>
-    <row r="27" ht="56.1" customHeight="1" spans="1:9">
-      <c r="A27" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1</v>
-      </c>
-      <c r="C28" s="4">
-        <v>10</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="4">
-        <v>1</v>
-      </c>
-      <c r="C29" s="4">
-        <v>10</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="10"/>
-    </row>
-    <row r="30" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A30" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="10"/>
-    </row>
-    <row r="31" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A31" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="10"/>
-    </row>
-    <row r="32" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A33" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A27:I27"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>